--- a/GantChart_updated.xlsx
+++ b/GantChart_updated.xlsx
@@ -5,24 +5,32 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d46e42c6afcf1ade/Master Vakken/CIEM6302 - Advanced Datascience for TIL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d46e42c6afcf1ade/Documenten/GitHub/CIEM6302-Advanced-Data-Science-for-Traffic-and-Transportation-Engineering-PrimeVision-G1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A87D3BBD-45E8-4E25-ACB4-D143BAB2247B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="408" documentId="8_{A87D3BBD-45E8-4E25-ACB4-D143BAB2247B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5F238B7-717D-40E7-9E09-D5ABD97EE685}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
+    <sheet name="Project schedule pt. 1" sheetId="12" r:id="rId1"/>
+    <sheet name="Project schedule pt. 2" sheetId="11" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Display_Week">'Project schedule'!$Q$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project schedule'!$4:$6</definedName>
-    <definedName name="Project_Start">'Project schedule'!$Q$1</definedName>
-    <definedName name="task_end" localSheetId="0">'Project schedule'!$F1</definedName>
-    <definedName name="task_progress" localSheetId="0">'Project schedule'!$D1</definedName>
-    <definedName name="task_start" localSheetId="0">'Project schedule'!$E1</definedName>
+    <definedName name="Display_Week" localSheetId="0">'Project schedule pt. 1'!$Q$2</definedName>
+    <definedName name="Display_Week">'Project schedule pt. 2'!$Q$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project schedule pt. 1'!$4:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Project schedule pt. 2'!$4:$6</definedName>
+    <definedName name="Project_Start" localSheetId="0">'Project schedule pt. 1'!$Q$1</definedName>
+    <definedName name="Project_Start">'Project schedule pt. 2'!$Q$1</definedName>
+    <definedName name="task_end" localSheetId="0">'Project schedule pt. 1'!$F1</definedName>
+    <definedName name="task_end" localSheetId="1">'Project schedule pt. 2'!$F1</definedName>
+    <definedName name="task_progress" localSheetId="0">'Project schedule pt. 1'!$D1</definedName>
+    <definedName name="task_progress" localSheetId="1">'Project schedule pt. 2'!$D1</definedName>
+    <definedName name="task_start" localSheetId="0">'Project schedule pt. 1'!$E1</definedName>
+    <definedName name="task_start" localSheetId="1">'Project schedule pt. 2'!$E1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
+    <definedName name="today" localSheetId="1">TODAY()</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -116,28 +124,7 @@
     <t>Sun + Jelmer</t>
   </si>
   <si>
-    <t>Discuss two chosen models</t>
-  </si>
-  <si>
     <t>All</t>
-  </si>
-  <si>
-    <t>Feature extraction model 1</t>
-  </si>
-  <si>
-    <t>Outlier management model 1</t>
-  </si>
-  <si>
-    <t>Hyperparameter tuning model 1</t>
-  </si>
-  <si>
-    <t>Feature extraction model 2</t>
-  </si>
-  <si>
-    <t>Outlier management model 2</t>
-  </si>
-  <si>
-    <t>Hyperparameter tuning model 2</t>
   </si>
   <si>
     <t>Jelmer</t>
@@ -158,28 +145,139 @@
     <t>Result discussion</t>
   </si>
   <si>
-    <t>Result reporting model 1</t>
-  </si>
-  <si>
-    <t>Tom + Mats</t>
-  </si>
-  <si>
-    <t>Result reporting model 2</t>
-  </si>
-  <si>
     <t>Notebook + Github Documentation</t>
   </si>
   <si>
     <t>Powerpoint</t>
   </si>
   <si>
-    <t>Powerpoint text model 1</t>
+    <t>Hand-in Final delivery</t>
   </si>
   <si>
-    <t>Powerpoint text model 2</t>
+    <t>Result table</t>
   </si>
   <si>
-    <t>Hand-in Final delivery</t>
+    <t>Conclusion + Introduction</t>
+  </si>
+  <si>
+    <t>Sprint Week 1</t>
+  </si>
+  <si>
+    <t>Github structuring</t>
+  </si>
+  <si>
+    <t>Gant chart planning</t>
+  </si>
+  <si>
+    <t>Hand-in Deliverable</t>
+  </si>
+  <si>
+    <t>Sprint Week 2</t>
+  </si>
+  <si>
+    <t>Data preperation</t>
+  </si>
+  <si>
+    <t>Subq1. Correlation Chart</t>
+  </si>
+  <si>
+    <t>Main- and subquestions formulation</t>
+  </si>
+  <si>
+    <t>Subq1. Frequency and total chart</t>
+  </si>
+  <si>
+    <t>Subq1. Location analysis</t>
+  </si>
+  <si>
+    <t>Subq1. Outlier/distribution analysis</t>
+  </si>
+  <si>
+    <t>Model forming</t>
+  </si>
+  <si>
+    <t>Model forming brainstorm</t>
+  </si>
+  <si>
+    <t>Documentation mainbook</t>
+  </si>
+  <si>
+    <t>Developing NN</t>
+  </si>
+  <si>
+    <t>Midterm check</t>
+  </si>
+  <si>
+    <t>Seasonality inclusion</t>
+  </si>
+  <si>
+    <t>Developing ARIMA</t>
+  </si>
+  <si>
+    <t>Discuss results</t>
+  </si>
+  <si>
+    <t>Developing LSTM</t>
+  </si>
+  <si>
+    <t>Subq1. Feature extraction</t>
+  </si>
+  <si>
+    <t>Developing dashboard</t>
+  </si>
+  <si>
+    <t>Creating presentation</t>
+  </si>
+  <si>
+    <t>Midterm check presentation</t>
+  </si>
+  <si>
+    <t>Improve chosen models</t>
+  </si>
+  <si>
+    <t>Explroing CEEMDAN possibilities</t>
+  </si>
+  <si>
+    <t>Improve ARIMA + add benchmarks</t>
+  </si>
+  <si>
+    <t>Improve NN + add benchmarks</t>
+  </si>
+  <si>
+    <t>Improve Linear + add benchmarks</t>
+  </si>
+  <si>
+    <t>Improve LSTM + add benchmarks</t>
+  </si>
+  <si>
+    <t>Result reporting model LSTM/GRU</t>
+  </si>
+  <si>
+    <t>Improve CEEMDAN LSTM/GRU</t>
+  </si>
+  <si>
+    <t>Explore parralel computing for CEEMDAN</t>
+  </si>
+  <si>
+    <t>Powerpoint text ARIMA + NN + Lin</t>
+  </si>
+  <si>
+    <t>Tom + Mats + Kristian</t>
+  </si>
+  <si>
+    <t>Powerpoint text model LSTM/CEEMDAN</t>
+  </si>
+  <si>
+    <t>Result reporting models NN + ARIMA + Lin</t>
+  </si>
+  <si>
+    <t>Finish dashboarding</t>
+  </si>
+  <si>
+    <t>Part 1 of 2</t>
+  </si>
+  <si>
+    <t>Part 2 of 2</t>
   </si>
 </sst>
 </file>
@@ -732,7 +830,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -903,15 +1001,6 @@
     <xf numFmtId="9" fontId="1" fillId="10" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -932,6 +1021,62 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="3" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="3" borderId="7" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="4" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="5" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="10" borderId="9" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -969,64 +1114,8 @@
     <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="3" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="3" borderId="7" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="4" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="5" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="10" borderId="9" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="15" fillId="5" borderId="8" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1044,7 +1133,61 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1068,6 +1211,38 @@
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1299,15 +1474,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="totalRow" dxfId="18"/>
-      <tableStyleElement type="firstColumn" dxfId="17"/>
-      <tableStyleElement type="lastColumn" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="secondRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="12"/>
+      <tableStyleElement type="wholeTable" dxfId="26"/>
+      <tableStyleElement type="headerRow" dxfId="25"/>
+      <tableStyleElement type="totalRow" dxfId="24"/>
+      <tableStyleElement type="firstColumn" dxfId="23"/>
+      <tableStyleElement type="lastColumn" dxfId="22"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="secondRowStripe" dxfId="20"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="18"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1398,6 +1573,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1602,14 +1781,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3711D70C-C4D4-422E-9C05-81F17FF17B04}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL38"/>
+  <dimension ref="A1:BL37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScale="77" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1618,81 +1797,101 @@
     <col min="2" max="2" width="32.296875" customWidth="1"/>
     <col min="3" max="3" width="16.69921875" customWidth="1"/>
     <col min="4" max="4" width="10.69921875" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" style="100" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="107" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" style="82" customWidth="1"/>
+    <col min="6" max="6" width="13.296875" style="89" customWidth="1"/>
     <col min="7" max="7" width="2.69921875" customWidth="1"/>
     <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
-    <col min="9" max="65" width="2.69921875" customWidth="1"/>
+    <col min="9" max="23" width="2.69921875" customWidth="1"/>
+    <col min="24" max="24" width="3.69921875" customWidth="1"/>
+    <col min="25" max="25" width="3.296875" customWidth="1"/>
+    <col min="26" max="26" width="4.296875" customWidth="1"/>
+    <col min="27" max="28" width="2.69921875" customWidth="1"/>
+    <col min="29" max="29" width="3.296875" customWidth="1"/>
+    <col min="30" max="31" width="3.5" customWidth="1"/>
+    <col min="32" max="32" width="2.69921875" customWidth="1"/>
+    <col min="33" max="33" width="3.796875" customWidth="1"/>
+    <col min="34" max="34" width="2.69921875" customWidth="1"/>
+    <col min="35" max="35" width="3.8984375" customWidth="1"/>
+    <col min="36" max="36" width="3.296875" customWidth="1"/>
+    <col min="37" max="37" width="3.69921875" customWidth="1"/>
+    <col min="38" max="58" width="2.69921875" customWidth="1"/>
+    <col min="59" max="59" width="3.59765625" customWidth="1"/>
+    <col min="60" max="60" width="3.296875" customWidth="1"/>
+    <col min="61" max="61" width="3.09765625" customWidth="1"/>
+    <col min="62" max="62" width="2.69921875" customWidth="1"/>
+    <col min="63" max="63" width="3.19921875" customWidth="1"/>
+    <col min="64" max="65" width="2.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.45">
       <c r="A1" s="7"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="70" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="101"/>
+      <c r="E1" s="83"/>
       <c r="F1" s="12"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
       <c r="P1" s="15"/>
-      <c r="Q1" s="82">
-        <f ca="1">TODAY()</f>
-        <v>45573</v>
-      </c>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
+      <c r="Q1" s="99">
+        <v>45537</v>
+      </c>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="72"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="13"/>
       <c r="E2" s="14"/>
       <c r="F2" s="13"/>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="80">
+      <c r="Q2" s="97">
         <v>1</v>
       </c>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
     </row>
     <row r="3" spans="1:64" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="16"/>
+      <c r="B3" s="16" t="s">
+        <v>73</v>
+      </c>
       <c r="D3" s="18"/>
       <c r="E3" s="19"/>
     </row>
@@ -1700,558 +1899,558 @@
       <c r="A4" s="7"/>
       <c r="B4" s="20"/>
       <c r="E4" s="21"/>
-      <c r="I4" s="87">
-        <f ca="1">I5</f>
+      <c r="I4" s="104">
+        <f>I5</f>
+        <v>45537</v>
+      </c>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102">
+        <f>P5</f>
+        <v>45544</v>
+      </c>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="102"/>
+      <c r="U4" s="102"/>
+      <c r="V4" s="102"/>
+      <c r="W4" s="102">
+        <f>W5</f>
+        <v>45551</v>
+      </c>
+      <c r="X4" s="102"/>
+      <c r="Y4" s="102"/>
+      <c r="Z4" s="102"/>
+      <c r="AA4" s="102"/>
+      <c r="AB4" s="102"/>
+      <c r="AC4" s="102"/>
+      <c r="AD4" s="102">
+        <f>AD5</f>
+        <v>45558</v>
+      </c>
+      <c r="AE4" s="102"/>
+      <c r="AF4" s="102"/>
+      <c r="AG4" s="102"/>
+      <c r="AH4" s="102"/>
+      <c r="AI4" s="102"/>
+      <c r="AJ4" s="102"/>
+      <c r="AK4" s="102">
+        <f>AK5</f>
+        <v>45565</v>
+      </c>
+      <c r="AL4" s="102"/>
+      <c r="AM4" s="102"/>
+      <c r="AN4" s="102"/>
+      <c r="AO4" s="102"/>
+      <c r="AP4" s="102"/>
+      <c r="AQ4" s="102"/>
+      <c r="AR4" s="102">
+        <f>AR5</f>
         <v>45572</v>
       </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85">
-        <f ca="1">P5</f>
+      <c r="AS4" s="102"/>
+      <c r="AT4" s="102"/>
+      <c r="AU4" s="102"/>
+      <c r="AV4" s="102"/>
+      <c r="AW4" s="102"/>
+      <c r="AX4" s="102"/>
+      <c r="AY4" s="102">
+        <f>AY5</f>
         <v>45579</v>
       </c>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85">
-        <f ca="1">W5</f>
+      <c r="AZ4" s="102"/>
+      <c r="BA4" s="102"/>
+      <c r="BB4" s="102"/>
+      <c r="BC4" s="102"/>
+      <c r="BD4" s="102"/>
+      <c r="BE4" s="102"/>
+      <c r="BF4" s="102">
+        <f>BF5</f>
         <v>45586</v>
       </c>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="85"/>
-      <c r="AD4" s="85">
-        <f ca="1">AD5</f>
-        <v>45593</v>
-      </c>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="85"/>
-      <c r="AG4" s="85"/>
-      <c r="AH4" s="85"/>
-      <c r="AI4" s="85"/>
-      <c r="AJ4" s="85"/>
-      <c r="AK4" s="85">
-        <f ca="1">AK5</f>
-        <v>45600</v>
-      </c>
-      <c r="AL4" s="85"/>
-      <c r="AM4" s="85"/>
-      <c r="AN4" s="85"/>
-      <c r="AO4" s="85"/>
-      <c r="AP4" s="85"/>
-      <c r="AQ4" s="85"/>
-      <c r="AR4" s="85">
-        <f ca="1">AR5</f>
-        <v>45607</v>
-      </c>
-      <c r="AS4" s="85"/>
-      <c r="AT4" s="85"/>
-      <c r="AU4" s="85"/>
-      <c r="AV4" s="85"/>
-      <c r="AW4" s="85"/>
-      <c r="AX4" s="85"/>
-      <c r="AY4" s="85">
-        <f ca="1">AY5</f>
-        <v>45614</v>
-      </c>
-      <c r="AZ4" s="85"/>
-      <c r="BA4" s="85"/>
-      <c r="BB4" s="85"/>
-      <c r="BC4" s="85"/>
-      <c r="BD4" s="85"/>
-      <c r="BE4" s="85"/>
-      <c r="BF4" s="85">
-        <f ca="1">BF5</f>
-        <v>45621</v>
-      </c>
-      <c r="BG4" s="85"/>
-      <c r="BH4" s="85"/>
-      <c r="BI4" s="85"/>
-      <c r="BJ4" s="85"/>
-      <c r="BK4" s="85"/>
-      <c r="BL4" s="86"/>
+      <c r="BG4" s="102"/>
+      <c r="BH4" s="102"/>
+      <c r="BI4" s="102"/>
+      <c r="BJ4" s="102"/>
+      <c r="BK4" s="102"/>
+      <c r="BL4" s="103"/>
     </row>
     <row r="5" spans="1:64" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="75" t="s">
+      <c r="A5" s="91"/>
+      <c r="B5" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="96" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="22">
-        <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
+        <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
+        <v>45537</v>
+      </c>
+      <c r="J5" s="22">
+        <f>I5+1</f>
+        <v>45538</v>
+      </c>
+      <c r="K5" s="22">
+        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
+        <v>45539</v>
+      </c>
+      <c r="L5" s="22">
+        <f t="shared" si="0"/>
+        <v>45540</v>
+      </c>
+      <c r="M5" s="22">
+        <f t="shared" si="0"/>
+        <v>45541</v>
+      </c>
+      <c r="N5" s="22">
+        <f t="shared" si="0"/>
+        <v>45542</v>
+      </c>
+      <c r="O5" s="23">
+        <f t="shared" si="0"/>
+        <v>45543</v>
+      </c>
+      <c r="P5" s="24">
+        <f>O5+1</f>
+        <v>45544</v>
+      </c>
+      <c r="Q5" s="22">
+        <f>P5+1</f>
+        <v>45545</v>
+      </c>
+      <c r="R5" s="22">
+        <f t="shared" si="0"/>
+        <v>45546</v>
+      </c>
+      <c r="S5" s="22">
+        <f t="shared" si="0"/>
+        <v>45547</v>
+      </c>
+      <c r="T5" s="22">
+        <f t="shared" si="0"/>
+        <v>45548</v>
+      </c>
+      <c r="U5" s="22">
+        <f t="shared" si="0"/>
+        <v>45549</v>
+      </c>
+      <c r="V5" s="23">
+        <f t="shared" si="0"/>
+        <v>45550</v>
+      </c>
+      <c r="W5" s="24">
+        <f>V5+1</f>
+        <v>45551</v>
+      </c>
+      <c r="X5" s="22">
+        <f>W5+1</f>
+        <v>45552</v>
+      </c>
+      <c r="Y5" s="22">
+        <f t="shared" si="0"/>
+        <v>45553</v>
+      </c>
+      <c r="Z5" s="22">
+        <f t="shared" si="0"/>
+        <v>45554</v>
+      </c>
+      <c r="AA5" s="22">
+        <f t="shared" si="0"/>
+        <v>45555</v>
+      </c>
+      <c r="AB5" s="22">
+        <f t="shared" si="0"/>
+        <v>45556</v>
+      </c>
+      <c r="AC5" s="23">
+        <f t="shared" si="0"/>
+        <v>45557</v>
+      </c>
+      <c r="AD5" s="24">
+        <f>AC5+1</f>
+        <v>45558</v>
+      </c>
+      <c r="AE5" s="22">
+        <f>AD5+1</f>
+        <v>45559</v>
+      </c>
+      <c r="AF5" s="22">
+        <f t="shared" si="0"/>
+        <v>45560</v>
+      </c>
+      <c r="AG5" s="22">
+        <f t="shared" si="0"/>
+        <v>45561</v>
+      </c>
+      <c r="AH5" s="22">
+        <f t="shared" si="0"/>
+        <v>45562</v>
+      </c>
+      <c r="AI5" s="22">
+        <f t="shared" si="0"/>
+        <v>45563</v>
+      </c>
+      <c r="AJ5" s="23">
+        <f t="shared" si="0"/>
+        <v>45564</v>
+      </c>
+      <c r="AK5" s="24">
+        <f>AJ5+1</f>
+        <v>45565</v>
+      </c>
+      <c r="AL5" s="22">
+        <f>AK5+1</f>
+        <v>45566</v>
+      </c>
+      <c r="AM5" s="22">
+        <f t="shared" si="0"/>
+        <v>45567</v>
+      </c>
+      <c r="AN5" s="22">
+        <f t="shared" si="0"/>
+        <v>45568</v>
+      </c>
+      <c r="AO5" s="22">
+        <f t="shared" si="0"/>
+        <v>45569</v>
+      </c>
+      <c r="AP5" s="22">
+        <f t="shared" si="0"/>
+        <v>45570</v>
+      </c>
+      <c r="AQ5" s="23">
+        <f t="shared" si="0"/>
+        <v>45571</v>
+      </c>
+      <c r="AR5" s="24">
+        <f>AQ5+1</f>
         <v>45572</v>
       </c>
-      <c r="J5" s="22">
-        <f ca="1">I5+1</f>
+      <c r="AS5" s="22">
+        <f>AR5+1</f>
         <v>45573</v>
       </c>
-      <c r="K5" s="22">
-        <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
+      <c r="AT5" s="22">
+        <f t="shared" si="0"/>
         <v>45574</v>
       </c>
-      <c r="L5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AU5" s="22">
+        <f t="shared" si="0"/>
         <v>45575</v>
       </c>
-      <c r="M5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AV5" s="22">
+        <f t="shared" si="0"/>
         <v>45576</v>
       </c>
-      <c r="N5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AW5" s="22">
+        <f t="shared" si="0"/>
         <v>45577</v>
       </c>
-      <c r="O5" s="23">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AX5" s="23">
+        <f t="shared" si="0"/>
         <v>45578</v>
       </c>
-      <c r="P5" s="24">
-        <f ca="1">O5+1</f>
+      <c r="AY5" s="24">
+        <f>AX5+1</f>
         <v>45579</v>
       </c>
-      <c r="Q5" s="22">
-        <f ca="1">P5+1</f>
+      <c r="AZ5" s="22">
+        <f>AY5+1</f>
         <v>45580</v>
       </c>
-      <c r="R5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BA5" s="22">
+        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
         <v>45581</v>
       </c>
-      <c r="S5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BB5" s="22">
+        <f t="shared" si="1"/>
         <v>45582</v>
       </c>
-      <c r="T5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BC5" s="22">
+        <f t="shared" si="1"/>
         <v>45583</v>
       </c>
-      <c r="U5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BD5" s="22">
+        <f t="shared" si="1"/>
         <v>45584</v>
       </c>
-      <c r="V5" s="23">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BE5" s="23">
+        <f t="shared" si="1"/>
         <v>45585</v>
       </c>
-      <c r="W5" s="24">
-        <f ca="1">V5+1</f>
+      <c r="BF5" s="24">
+        <f>BE5+1</f>
         <v>45586</v>
       </c>
-      <c r="X5" s="22">
-        <f ca="1">W5+1</f>
+      <c r="BG5" s="22">
+        <f>BF5+1</f>
         <v>45587</v>
       </c>
-      <c r="Y5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BH5" s="22">
+        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
         <v>45588</v>
       </c>
-      <c r="Z5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BI5" s="22">
+        <f t="shared" si="2"/>
         <v>45589</v>
       </c>
-      <c r="AA5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BJ5" s="22">
+        <f t="shared" si="2"/>
         <v>45590</v>
       </c>
-      <c r="AB5" s="22">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BK5" s="22">
+        <f t="shared" si="2"/>
         <v>45591</v>
       </c>
-      <c r="AC5" s="23">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BL5" s="22">
+        <f t="shared" si="2"/>
         <v>45592</v>
-      </c>
-      <c r="AD5" s="24">
-        <f ca="1">AC5+1</f>
-        <v>45593</v>
-      </c>
-      <c r="AE5" s="22">
-        <f ca="1">AD5+1</f>
-        <v>45594</v>
-      </c>
-      <c r="AF5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>45595</v>
-      </c>
-      <c r="AG5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>45596</v>
-      </c>
-      <c r="AH5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>45597</v>
-      </c>
-      <c r="AI5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>45598</v>
-      </c>
-      <c r="AJ5" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>45599</v>
-      </c>
-      <c r="AK5" s="24">
-        <f ca="1">AJ5+1</f>
-        <v>45600</v>
-      </c>
-      <c r="AL5" s="22">
-        <f ca="1">AK5+1</f>
-        <v>45601</v>
-      </c>
-      <c r="AM5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>45602</v>
-      </c>
-      <c r="AN5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>45603</v>
-      </c>
-      <c r="AO5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>45604</v>
-      </c>
-      <c r="AP5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>45605</v>
-      </c>
-      <c r="AQ5" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>45606</v>
-      </c>
-      <c r="AR5" s="24">
-        <f ca="1">AQ5+1</f>
-        <v>45607</v>
-      </c>
-      <c r="AS5" s="22">
-        <f ca="1">AR5+1</f>
-        <v>45608</v>
-      </c>
-      <c r="AT5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>45609</v>
-      </c>
-      <c r="AU5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>45610</v>
-      </c>
-      <c r="AV5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>45611</v>
-      </c>
-      <c r="AW5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>45612</v>
-      </c>
-      <c r="AX5" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>45613</v>
-      </c>
-      <c r="AY5" s="24">
-        <f ca="1">AX5+1</f>
-        <v>45614</v>
-      </c>
-      <c r="AZ5" s="22">
-        <f ca="1">AY5+1</f>
-        <v>45615</v>
-      </c>
-      <c r="BA5" s="22">
-        <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45616</v>
-      </c>
-      <c r="BB5" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>45617</v>
-      </c>
-      <c r="BC5" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>45618</v>
-      </c>
-      <c r="BD5" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>45619</v>
-      </c>
-      <c r="BE5" s="23">
-        <f t="shared" ca="1" si="1"/>
-        <v>45620</v>
-      </c>
-      <c r="BF5" s="24">
-        <f ca="1">BE5+1</f>
-        <v>45621</v>
-      </c>
-      <c r="BG5" s="22">
-        <f ca="1">BF5+1</f>
-        <v>45622</v>
-      </c>
-      <c r="BH5" s="22">
-        <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45623</v>
-      </c>
-      <c r="BI5" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>45624</v>
-      </c>
-      <c r="BJ5" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>45625</v>
-      </c>
-      <c r="BK5" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>45626</v>
-      </c>
-      <c r="BL5" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>45627</v>
       </c>
     </row>
     <row r="6" spans="1:64" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
       <c r="I6" s="25" t="str">
-        <f t="shared" ref="I6:AN6" ca="1" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
+        <f t="shared" ref="I6:BL6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>m</v>
       </c>
       <c r="J6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="K6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>w</v>
       </c>
       <c r="L6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="M6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>v</v>
       </c>
       <c r="N6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>z</v>
       </c>
       <c r="O6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>z</v>
       </c>
       <c r="P6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>m</v>
       </c>
       <c r="Q6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="R6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>w</v>
       </c>
       <c r="S6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="T6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>v</v>
       </c>
       <c r="U6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>z</v>
       </c>
       <c r="V6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>z</v>
       </c>
       <c r="W6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>m</v>
       </c>
       <c r="X6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="Y6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>w</v>
       </c>
       <c r="Z6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AA6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>v</v>
       </c>
       <c r="AB6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>z</v>
       </c>
       <c r="AC6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>z</v>
       </c>
       <c r="AD6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>m</v>
       </c>
       <c r="AE6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AF6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>w</v>
       </c>
       <c r="AG6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AH6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>v</v>
       </c>
       <c r="AI6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>z</v>
       </c>
       <c r="AJ6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>z</v>
       </c>
       <c r="AK6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>m</v>
       </c>
       <c r="AL6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AM6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>w</v>
       </c>
       <c r="AN6" s="26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AO6" s="26" t="str">
-        <f t="shared" ref="AO6:BL6" ca="1" si="4">LEFT(TEXT(AO5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>v</v>
       </c>
       <c r="AP6" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>z</v>
       </c>
       <c r="AQ6" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>z</v>
       </c>
       <c r="AR6" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>m</v>
       </c>
       <c r="AS6" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AT6" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>w</v>
       </c>
       <c r="AU6" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AV6" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>v</v>
       </c>
       <c r="AW6" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>z</v>
       </c>
       <c r="AX6" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>z</v>
       </c>
       <c r="AY6" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>m</v>
       </c>
       <c r="AZ6" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="BA6" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>w</v>
       </c>
       <c r="BB6" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="BC6" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>v</v>
       </c>
       <c r="BD6" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>z</v>
       </c>
       <c r="BE6" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>z</v>
       </c>
       <c r="BF6" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>m</v>
       </c>
       <c r="BG6" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="BH6" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>w</v>
       </c>
       <c r="BI6" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="BJ6" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>v</v>
       </c>
       <c r="BK6" s="26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>z</v>
       </c>
       <c r="BL6" s="27" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="3"/>
         <v>z</v>
       </c>
     </row>
@@ -2262,8 +2461,2870 @@
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
       <c r="D7" s="28"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="H7" s="17" t="str">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="30"/>
+      <c r="AQ7" s="30"/>
+      <c r="AR7" s="30"/>
+      <c r="AS7" s="30"/>
+      <c r="AT7" s="30"/>
+      <c r="AU7" s="30"/>
+      <c r="AV7" s="30"/>
+      <c r="AW7" s="30"/>
+      <c r="AX7" s="30"/>
+      <c r="AY7" s="30"/>
+      <c r="AZ7" s="30"/>
+      <c r="BA7" s="30"/>
+      <c r="BB7" s="30"/>
+      <c r="BC7" s="30"/>
+      <c r="BD7" s="30"/>
+      <c r="BE7" s="30"/>
+      <c r="BF7" s="30"/>
+      <c r="BG7" s="30"/>
+      <c r="BH7" s="30"/>
+      <c r="BI7" s="30"/>
+      <c r="BJ7" s="30"/>
+      <c r="BK7" s="30"/>
+      <c r="BL7" s="30"/>
+    </row>
+    <row r="8" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="4" t="str">
+        <f t="shared" ref="H8:H34" si="4">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="34"/>
+      <c r="AO8" s="34"/>
+      <c r="AP8" s="34"/>
+      <c r="AQ8" s="34"/>
+      <c r="AR8" s="34"/>
+      <c r="AS8" s="34"/>
+      <c r="AT8" s="34"/>
+      <c r="AU8" s="34"/>
+      <c r="AV8" s="34"/>
+      <c r="AW8" s="34"/>
+      <c r="AX8" s="34"/>
+      <c r="AY8" s="34"/>
+      <c r="AZ8" s="34"/>
+      <c r="BA8" s="34"/>
+      <c r="BB8" s="34"/>
+      <c r="BC8" s="34"/>
+      <c r="BD8" s="34"/>
+      <c r="BE8" s="34"/>
+      <c r="BF8" s="34"/>
+      <c r="BG8" s="34"/>
+      <c r="BH8" s="34"/>
+      <c r="BI8" s="34"/>
+      <c r="BJ8" s="34"/>
+      <c r="BK8" s="34"/>
+      <c r="BL8" s="34"/>
+    </row>
+    <row r="9" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="38">
+        <v>1</v>
+      </c>
+      <c r="E9" s="73">
+        <v>45545</v>
+      </c>
+      <c r="F9" s="73">
+        <v>45547</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="39"/>
+      <c r="AQ9" s="39"/>
+      <c r="AR9" s="39"/>
+      <c r="AS9" s="39"/>
+      <c r="AT9" s="39"/>
+      <c r="AU9" s="39"/>
+      <c r="AV9" s="39"/>
+      <c r="AW9" s="39"/>
+      <c r="AX9" s="39"/>
+      <c r="AY9" s="39"/>
+      <c r="AZ9" s="39"/>
+      <c r="BA9" s="39"/>
+      <c r="BB9" s="39"/>
+      <c r="BC9" s="39"/>
+      <c r="BD9" s="39"/>
+      <c r="BE9" s="39"/>
+      <c r="BF9" s="39"/>
+      <c r="BG9" s="39"/>
+      <c r="BH9" s="39"/>
+      <c r="BI9" s="39"/>
+      <c r="BJ9" s="39"/>
+      <c r="BK9" s="39"/>
+      <c r="BL9" s="39"/>
+    </row>
+    <row r="10" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="38">
+        <v>1</v>
+      </c>
+      <c r="E10" s="73">
+        <v>45545</v>
+      </c>
+      <c r="F10" s="73">
+        <v>45547</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="39"/>
+      <c r="AM10" s="39"/>
+      <c r="AN10" s="39"/>
+      <c r="AO10" s="39"/>
+      <c r="AP10" s="39"/>
+      <c r="AQ10" s="39"/>
+      <c r="AR10" s="39"/>
+      <c r="AS10" s="39"/>
+      <c r="AT10" s="39"/>
+      <c r="AU10" s="39"/>
+      <c r="AV10" s="39"/>
+      <c r="AW10" s="39"/>
+      <c r="AX10" s="39"/>
+      <c r="AY10" s="39"/>
+      <c r="AZ10" s="39"/>
+      <c r="BA10" s="39"/>
+      <c r="BB10" s="39"/>
+      <c r="BC10" s="39"/>
+      <c r="BD10" s="39"/>
+      <c r="BE10" s="39"/>
+      <c r="BF10" s="39"/>
+      <c r="BG10" s="39"/>
+      <c r="BH10" s="39"/>
+      <c r="BI10" s="39"/>
+      <c r="BJ10" s="39"/>
+      <c r="BK10" s="39"/>
+      <c r="BL10" s="39"/>
+    </row>
+    <row r="11" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="38">
+        <v>1</v>
+      </c>
+      <c r="E11" s="73">
+        <v>45545</v>
+      </c>
+      <c r="F11" s="73">
+        <v>45547</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="39"/>
+      <c r="AN11" s="39"/>
+      <c r="AO11" s="39"/>
+      <c r="AP11" s="39"/>
+      <c r="AQ11" s="39"/>
+      <c r="AR11" s="39"/>
+      <c r="AS11" s="39"/>
+      <c r="AT11" s="39"/>
+      <c r="AU11" s="39"/>
+      <c r="AV11" s="39"/>
+      <c r="AW11" s="39"/>
+      <c r="AX11" s="39"/>
+      <c r="AY11" s="39"/>
+      <c r="AZ11" s="39"/>
+      <c r="BA11" s="39"/>
+      <c r="BB11" s="39"/>
+      <c r="BC11" s="39"/>
+      <c r="BD11" s="39"/>
+      <c r="BE11" s="39"/>
+      <c r="BF11" s="39"/>
+      <c r="BG11" s="39"/>
+      <c r="BH11" s="39"/>
+      <c r="BI11" s="39"/>
+      <c r="BJ11" s="39"/>
+      <c r="BK11" s="39"/>
+      <c r="BL11" s="39"/>
+    </row>
+    <row r="12" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="38">
+        <v>1</v>
+      </c>
+      <c r="E12" s="73">
+        <v>45545</v>
+      </c>
+      <c r="F12" s="73">
+        <v>45547</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="39"/>
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="39"/>
+      <c r="AP12" s="39"/>
+      <c r="AQ12" s="39"/>
+      <c r="AR12" s="39"/>
+      <c r="AS12" s="39"/>
+      <c r="AT12" s="39"/>
+      <c r="AU12" s="39"/>
+      <c r="AV12" s="39"/>
+      <c r="AW12" s="39"/>
+      <c r="AX12" s="39"/>
+      <c r="AY12" s="39"/>
+      <c r="AZ12" s="39"/>
+      <c r="BA12" s="39"/>
+      <c r="BB12" s="39"/>
+      <c r="BC12" s="39"/>
+      <c r="BD12" s="39"/>
+      <c r="BE12" s="39"/>
+      <c r="BF12" s="39"/>
+      <c r="BG12" s="39"/>
+      <c r="BH12" s="39"/>
+      <c r="BI12" s="39"/>
+      <c r="BJ12" s="39"/>
+      <c r="BK12" s="39"/>
+      <c r="BL12" s="39"/>
+    </row>
+    <row r="13" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="42">
+        <v>0</v>
+      </c>
+      <c r="E13" s="73">
+        <v>45547</v>
+      </c>
+      <c r="F13" s="73">
+        <v>45547</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="39"/>
+      <c r="AR13" s="39"/>
+      <c r="AS13" s="39"/>
+      <c r="AT13" s="39"/>
+      <c r="AU13" s="39"/>
+      <c r="AV13" s="39"/>
+      <c r="AW13" s="39"/>
+      <c r="AX13" s="39"/>
+      <c r="AY13" s="39"/>
+      <c r="AZ13" s="39"/>
+      <c r="BA13" s="39"/>
+      <c r="BB13" s="39"/>
+      <c r="BC13" s="39"/>
+      <c r="BD13" s="39"/>
+      <c r="BE13" s="39"/>
+      <c r="BF13" s="39"/>
+      <c r="BG13" s="39"/>
+      <c r="BH13" s="39"/>
+      <c r="BI13" s="39"/>
+      <c r="BJ13" s="39"/>
+      <c r="BK13" s="39"/>
+      <c r="BL13" s="39"/>
+    </row>
+    <row r="14" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="49">
+        <v>1</v>
+      </c>
+      <c r="E15" s="76">
+        <v>45551</v>
+      </c>
+      <c r="F15" s="76">
+        <v>45557</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="39"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="39"/>
+      <c r="AM15" s="39"/>
+      <c r="AN15" s="39"/>
+      <c r="AO15" s="39"/>
+      <c r="AP15" s="39"/>
+      <c r="AQ15" s="39"/>
+      <c r="AR15" s="39"/>
+      <c r="AS15" s="39"/>
+      <c r="AT15" s="39"/>
+      <c r="AU15" s="39"/>
+      <c r="AV15" s="39"/>
+      <c r="AW15" s="39"/>
+      <c r="AX15" s="39"/>
+      <c r="AY15" s="39"/>
+      <c r="AZ15" s="39"/>
+      <c r="BA15" s="39"/>
+      <c r="BB15" s="39"/>
+      <c r="BC15" s="39"/>
+      <c r="BD15" s="39"/>
+      <c r="BE15" s="39"/>
+      <c r="BF15" s="39"/>
+      <c r="BG15" s="39"/>
+      <c r="BH15" s="39"/>
+      <c r="BI15" s="39"/>
+      <c r="BJ15" s="39"/>
+      <c r="BK15" s="39"/>
+      <c r="BL15" s="39"/>
+    </row>
+    <row r="16" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="49">
+        <v>1</v>
+      </c>
+      <c r="E16" s="76">
+        <v>45551</v>
+      </c>
+      <c r="F16" s="76">
+        <v>45557</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="39"/>
+      <c r="AJ16" s="39"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="39"/>
+      <c r="AM16" s="39"/>
+      <c r="AN16" s="39"/>
+      <c r="AO16" s="39"/>
+      <c r="AP16" s="39"/>
+      <c r="AQ16" s="39"/>
+      <c r="AR16" s="39"/>
+      <c r="AS16" s="39"/>
+      <c r="AT16" s="39"/>
+      <c r="AU16" s="39"/>
+      <c r="AV16" s="39"/>
+      <c r="AW16" s="39"/>
+      <c r="AX16" s="39"/>
+      <c r="AY16" s="39"/>
+      <c r="AZ16" s="39"/>
+      <c r="BA16" s="39"/>
+      <c r="BB16" s="39"/>
+      <c r="BC16" s="39"/>
+      <c r="BD16" s="39"/>
+      <c r="BE16" s="39"/>
+      <c r="BF16" s="39"/>
+      <c r="BG16" s="39"/>
+      <c r="BH16" s="39"/>
+      <c r="BI16" s="39"/>
+      <c r="BJ16" s="39"/>
+      <c r="BK16" s="39"/>
+      <c r="BL16" s="39"/>
+    </row>
+    <row r="17" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="49">
+        <v>1</v>
+      </c>
+      <c r="E17" s="76">
+        <v>45551</v>
+      </c>
+      <c r="F17" s="76">
+        <v>45557</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="39"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="39"/>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="39"/>
+      <c r="AM17" s="39"/>
+      <c r="AN17" s="39"/>
+      <c r="AO17" s="39"/>
+      <c r="AP17" s="39"/>
+      <c r="AQ17" s="39"/>
+      <c r="AR17" s="39"/>
+      <c r="AS17" s="39"/>
+      <c r="AT17" s="39"/>
+      <c r="AU17" s="39"/>
+      <c r="AV17" s="39"/>
+      <c r="AW17" s="39"/>
+      <c r="AX17" s="39"/>
+      <c r="AY17" s="39"/>
+      <c r="AZ17" s="39"/>
+      <c r="BA17" s="39"/>
+      <c r="BB17" s="39"/>
+      <c r="BC17" s="39"/>
+      <c r="BD17" s="39"/>
+      <c r="BE17" s="39"/>
+      <c r="BF17" s="39"/>
+      <c r="BG17" s="39"/>
+      <c r="BH17" s="39"/>
+      <c r="BI17" s="39"/>
+      <c r="BJ17" s="39"/>
+      <c r="BK17" s="39"/>
+      <c r="BL17" s="39"/>
+    </row>
+    <row r="18" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="49">
+        <v>1</v>
+      </c>
+      <c r="E18" s="76">
+        <v>45551</v>
+      </c>
+      <c r="F18" s="76">
+        <v>45557</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="39"/>
+      <c r="AM18" s="39"/>
+      <c r="AN18" s="39"/>
+      <c r="AO18" s="39"/>
+      <c r="AP18" s="39"/>
+      <c r="AQ18" s="39"/>
+      <c r="AR18" s="39"/>
+      <c r="AS18" s="39"/>
+      <c r="AT18" s="39"/>
+      <c r="AU18" s="39"/>
+      <c r="AV18" s="39"/>
+      <c r="AW18" s="39"/>
+      <c r="AX18" s="39"/>
+      <c r="AY18" s="39"/>
+      <c r="AZ18" s="39"/>
+      <c r="BA18" s="39"/>
+      <c r="BB18" s="39"/>
+      <c r="BC18" s="39"/>
+      <c r="BD18" s="39"/>
+      <c r="BE18" s="39"/>
+      <c r="BF18" s="39"/>
+      <c r="BG18" s="39"/>
+      <c r="BH18" s="39"/>
+      <c r="BI18" s="39"/>
+      <c r="BJ18" s="39"/>
+      <c r="BK18" s="39"/>
+      <c r="BL18" s="39"/>
+    </row>
+    <row r="19" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="49">
+        <v>1</v>
+      </c>
+      <c r="E19" s="76">
+        <v>45551</v>
+      </c>
+      <c r="F19" s="76">
+        <v>45557</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="39"/>
+      <c r="AI19" s="39"/>
+      <c r="AJ19" s="39"/>
+      <c r="AK19" s="39"/>
+      <c r="AL19" s="39"/>
+      <c r="AM19" s="39"/>
+      <c r="AN19" s="39"/>
+      <c r="AO19" s="39"/>
+      <c r="AP19" s="39"/>
+      <c r="AQ19" s="39"/>
+      <c r="AR19" s="39"/>
+      <c r="AS19" s="39"/>
+      <c r="AT19" s="39"/>
+      <c r="AU19" s="39"/>
+      <c r="AV19" s="39"/>
+      <c r="AW19" s="39"/>
+      <c r="AX19" s="39"/>
+      <c r="AY19" s="39"/>
+      <c r="AZ19" s="39"/>
+      <c r="BA19" s="39"/>
+      <c r="BB19" s="39"/>
+      <c r="BC19" s="39"/>
+      <c r="BD19" s="39"/>
+      <c r="BE19" s="39"/>
+      <c r="BF19" s="39"/>
+      <c r="BG19" s="39"/>
+      <c r="BH19" s="39"/>
+      <c r="BI19" s="39"/>
+      <c r="BJ19" s="39"/>
+      <c r="BK19" s="39"/>
+      <c r="BL19" s="39"/>
+    </row>
+    <row r="20" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="53"/>
+      <c r="AH20" s="53"/>
+      <c r="AI20" s="53"/>
+      <c r="AJ20" s="53"/>
+      <c r="AK20" s="53"/>
+      <c r="AL20" s="53"/>
+      <c r="AM20" s="53"/>
+      <c r="AN20" s="53"/>
+      <c r="AO20" s="53"/>
+      <c r="AP20" s="53"/>
+      <c r="AQ20" s="53"/>
+      <c r="AR20" s="53"/>
+      <c r="AS20" s="53"/>
+      <c r="AT20" s="53"/>
+      <c r="AU20" s="53"/>
+      <c r="AV20" s="53"/>
+      <c r="AW20" s="53"/>
+      <c r="AX20" s="53"/>
+      <c r="AY20" s="53"/>
+      <c r="AZ20" s="53"/>
+      <c r="BA20" s="53"/>
+      <c r="BB20" s="53"/>
+      <c r="BC20" s="53"/>
+      <c r="BD20" s="53"/>
+      <c r="BE20" s="53"/>
+      <c r="BF20" s="53"/>
+      <c r="BG20" s="53"/>
+      <c r="BH20" s="53"/>
+      <c r="BI20" s="53"/>
+      <c r="BJ20" s="53"/>
+      <c r="BK20" s="53"/>
+      <c r="BL20" s="53"/>
+    </row>
+    <row r="21" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="56">
+        <v>1</v>
+      </c>
+      <c r="E21" s="78">
+        <v>45559</v>
+      </c>
+      <c r="F21" s="78">
+        <v>45559</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="39"/>
+      <c r="AL21" s="39"/>
+      <c r="AM21" s="39"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="39"/>
+      <c r="AP21" s="39"/>
+      <c r="AQ21" s="39"/>
+      <c r="AR21" s="39"/>
+      <c r="AS21" s="39"/>
+      <c r="AT21" s="39"/>
+      <c r="AU21" s="39"/>
+      <c r="AV21" s="39"/>
+      <c r="AW21" s="39"/>
+      <c r="AX21" s="39"/>
+      <c r="AY21" s="39"/>
+      <c r="AZ21" s="39"/>
+      <c r="BA21" s="39"/>
+      <c r="BB21" s="39"/>
+      <c r="BC21" s="39"/>
+      <c r="BD21" s="39"/>
+      <c r="BE21" s="39"/>
+      <c r="BF21" s="39"/>
+      <c r="BG21" s="39"/>
+      <c r="BH21" s="39"/>
+      <c r="BI21" s="39"/>
+      <c r="BJ21" s="39"/>
+      <c r="BK21" s="39"/>
+      <c r="BL21" s="39"/>
+    </row>
+    <row r="22" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="56">
+        <v>1</v>
+      </c>
+      <c r="E22" s="78">
+        <v>45559</v>
+      </c>
+      <c r="F22" s="78">
+        <v>45564</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="39"/>
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="39"/>
+      <c r="AL22" s="39"/>
+      <c r="AM22" s="39"/>
+      <c r="AN22" s="39"/>
+      <c r="AO22" s="39"/>
+      <c r="AP22" s="39"/>
+      <c r="AQ22" s="39"/>
+      <c r="AR22" s="39"/>
+      <c r="AS22" s="39"/>
+      <c r="AT22" s="39"/>
+      <c r="AU22" s="39"/>
+      <c r="AV22" s="39"/>
+      <c r="AW22" s="39"/>
+      <c r="AX22" s="39"/>
+      <c r="AY22" s="39"/>
+      <c r="AZ22" s="39"/>
+      <c r="BA22" s="39"/>
+      <c r="BB22" s="39"/>
+      <c r="BC22" s="39"/>
+      <c r="BD22" s="39"/>
+      <c r="BE22" s="39"/>
+      <c r="BF22" s="39"/>
+      <c r="BG22" s="39"/>
+      <c r="BH22" s="39"/>
+      <c r="BI22" s="39"/>
+      <c r="BJ22" s="39"/>
+      <c r="BK22" s="39"/>
+      <c r="BL22" s="39"/>
+    </row>
+    <row r="23" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="56">
+        <v>1</v>
+      </c>
+      <c r="E23" s="78">
+        <v>45559</v>
+      </c>
+      <c r="F23" s="78">
+        <v>45564</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="39"/>
+      <c r="AG23" s="39"/>
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="39"/>
+      <c r="AJ23" s="39"/>
+      <c r="AK23" s="39"/>
+      <c r="AL23" s="39"/>
+      <c r="AM23" s="39"/>
+      <c r="AN23" s="39"/>
+      <c r="AO23" s="39"/>
+      <c r="AP23" s="39"/>
+      <c r="AQ23" s="39"/>
+      <c r="AR23" s="39"/>
+      <c r="AS23" s="39"/>
+      <c r="AT23" s="39"/>
+      <c r="AU23" s="39"/>
+      <c r="AV23" s="39"/>
+      <c r="AW23" s="39"/>
+      <c r="AX23" s="39"/>
+      <c r="AY23" s="39"/>
+      <c r="AZ23" s="39"/>
+      <c r="BA23" s="39"/>
+      <c r="BB23" s="39"/>
+      <c r="BC23" s="39"/>
+      <c r="BD23" s="39"/>
+      <c r="BE23" s="39"/>
+      <c r="BF23" s="39"/>
+      <c r="BG23" s="39"/>
+      <c r="BH23" s="39"/>
+      <c r="BI23" s="39"/>
+      <c r="BJ23" s="39"/>
+      <c r="BK23" s="39"/>
+      <c r="BL23" s="39"/>
+    </row>
+    <row r="24" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="56">
+        <v>1</v>
+      </c>
+      <c r="E24" s="78">
+        <v>45559</v>
+      </c>
+      <c r="F24" s="78">
+        <v>45564</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="39"/>
+      <c r="AM24" s="39"/>
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="39"/>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="39"/>
+      <c r="AR24" s="39"/>
+      <c r="AS24" s="39"/>
+      <c r="AT24" s="39"/>
+      <c r="AU24" s="39"/>
+      <c r="AV24" s="39"/>
+      <c r="AW24" s="39"/>
+      <c r="AX24" s="39"/>
+      <c r="AY24" s="39"/>
+      <c r="AZ24" s="39"/>
+      <c r="BA24" s="39"/>
+      <c r="BB24" s="39"/>
+      <c r="BC24" s="39"/>
+      <c r="BD24" s="39"/>
+      <c r="BE24" s="39"/>
+      <c r="BF24" s="39"/>
+      <c r="BG24" s="39"/>
+      <c r="BH24" s="39"/>
+      <c r="BI24" s="39"/>
+      <c r="BJ24" s="39"/>
+      <c r="BK24" s="39"/>
+      <c r="BL24" s="39"/>
+    </row>
+    <row r="25" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="56">
+        <v>1</v>
+      </c>
+      <c r="E25" s="78">
+        <v>45559</v>
+      </c>
+      <c r="F25" s="78">
+        <v>45564</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="39"/>
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="39"/>
+      <c r="AP25" s="39"/>
+      <c r="AQ25" s="39"/>
+      <c r="AR25" s="39"/>
+      <c r="AS25" s="39"/>
+      <c r="AT25" s="39"/>
+      <c r="AU25" s="39"/>
+      <c r="AV25" s="39"/>
+      <c r="AW25" s="39"/>
+      <c r="AX25" s="39"/>
+      <c r="AY25" s="39"/>
+      <c r="AZ25" s="39"/>
+      <c r="BA25" s="39"/>
+      <c r="BB25" s="39"/>
+      <c r="BC25" s="39"/>
+      <c r="BD25" s="39"/>
+      <c r="BE25" s="39"/>
+      <c r="BF25" s="39"/>
+      <c r="BG25" s="39"/>
+      <c r="BH25" s="39"/>
+      <c r="BI25" s="39"/>
+      <c r="BJ25" s="39"/>
+      <c r="BK25" s="39"/>
+      <c r="BL25" s="39"/>
+    </row>
+    <row r="26" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="56">
+        <v>1</v>
+      </c>
+      <c r="E26" s="78">
+        <v>45559</v>
+      </c>
+      <c r="F26" s="78">
+        <v>45564</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="39"/>
+      <c r="AF26" s="39"/>
+      <c r="AG26" s="39"/>
+      <c r="AH26" s="39"/>
+      <c r="AI26" s="39"/>
+      <c r="AJ26" s="39"/>
+      <c r="AK26" s="39"/>
+      <c r="AL26" s="39"/>
+      <c r="AM26" s="39"/>
+      <c r="AN26" s="39"/>
+      <c r="AO26" s="39"/>
+      <c r="AP26" s="39"/>
+      <c r="AQ26" s="39"/>
+      <c r="AR26" s="39"/>
+      <c r="AS26" s="39"/>
+      <c r="AT26" s="39"/>
+      <c r="AU26" s="39"/>
+      <c r="AV26" s="39"/>
+      <c r="AW26" s="39"/>
+      <c r="AX26" s="39"/>
+      <c r="AY26" s="39"/>
+      <c r="AZ26" s="39"/>
+      <c r="BA26" s="39"/>
+      <c r="BB26" s="39"/>
+      <c r="BC26" s="39"/>
+      <c r="BD26" s="39"/>
+      <c r="BE26" s="39"/>
+      <c r="BF26" s="39"/>
+      <c r="BG26" s="39"/>
+      <c r="BH26" s="39"/>
+      <c r="BI26" s="39"/>
+      <c r="BJ26" s="39"/>
+      <c r="BK26" s="39"/>
+      <c r="BL26" s="39"/>
+    </row>
+    <row r="27" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="56">
+        <v>1</v>
+      </c>
+      <c r="E27" s="78">
+        <v>45559</v>
+      </c>
+      <c r="F27" s="78">
+        <v>45564</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="39"/>
+      <c r="AG27" s="39"/>
+      <c r="AH27" s="39"/>
+      <c r="AI27" s="39"/>
+      <c r="AJ27" s="39"/>
+      <c r="AK27" s="39"/>
+      <c r="AL27" s="39"/>
+      <c r="AM27" s="39"/>
+      <c r="AN27" s="39"/>
+      <c r="AO27" s="39"/>
+      <c r="AP27" s="39"/>
+      <c r="AQ27" s="39"/>
+      <c r="AR27" s="39"/>
+      <c r="AS27" s="39"/>
+      <c r="AT27" s="39"/>
+      <c r="AU27" s="39"/>
+      <c r="AV27" s="39"/>
+      <c r="AW27" s="39"/>
+      <c r="AX27" s="39"/>
+      <c r="AY27" s="39"/>
+      <c r="AZ27" s="39"/>
+      <c r="BA27" s="39"/>
+      <c r="BB27" s="39"/>
+      <c r="BC27" s="39"/>
+      <c r="BD27" s="39"/>
+      <c r="BE27" s="39"/>
+      <c r="BF27" s="39"/>
+      <c r="BG27" s="39"/>
+      <c r="BH27" s="39"/>
+      <c r="BI27" s="39"/>
+      <c r="BJ27" s="39"/>
+      <c r="BK27" s="39"/>
+      <c r="BL27" s="39"/>
+    </row>
+    <row r="28" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="60"/>
+      <c r="W28" s="60"/>
+      <c r="X28" s="60"/>
+      <c r="Y28" s="60"/>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="60"/>
+      <c r="AB28" s="60"/>
+      <c r="AC28" s="60"/>
+      <c r="AD28" s="60"/>
+      <c r="AE28" s="60"/>
+      <c r="AF28" s="60"/>
+      <c r="AG28" s="60"/>
+      <c r="AH28" s="60"/>
+      <c r="AI28" s="60"/>
+      <c r="AJ28" s="60"/>
+      <c r="AK28" s="60"/>
+      <c r="AL28" s="60"/>
+      <c r="AM28" s="60"/>
+      <c r="AN28" s="60"/>
+      <c r="AO28" s="60"/>
+      <c r="AP28" s="60"/>
+      <c r="AQ28" s="60"/>
+      <c r="AR28" s="60"/>
+      <c r="AS28" s="60"/>
+      <c r="AT28" s="60"/>
+      <c r="AU28" s="60"/>
+      <c r="AV28" s="60"/>
+      <c r="AW28" s="60"/>
+      <c r="AX28" s="60"/>
+      <c r="AY28" s="60"/>
+      <c r="AZ28" s="60"/>
+      <c r="BA28" s="60"/>
+      <c r="BB28" s="60"/>
+      <c r="BC28" s="60"/>
+      <c r="BD28" s="60"/>
+      <c r="BE28" s="60"/>
+      <c r="BF28" s="60"/>
+      <c r="BG28" s="60"/>
+      <c r="BH28" s="60"/>
+      <c r="BI28" s="60"/>
+      <c r="BJ28" s="60"/>
+      <c r="BK28" s="60"/>
+      <c r="BL28" s="60"/>
+    </row>
+    <row r="29" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="63">
+        <v>1</v>
+      </c>
+      <c r="E29" s="80">
+        <v>45566</v>
+      </c>
+      <c r="F29" s="80">
+        <v>45566</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+      <c r="AD29" s="39"/>
+      <c r="AE29" s="39"/>
+      <c r="AF29" s="39"/>
+      <c r="AG29" s="39"/>
+      <c r="AH29" s="39"/>
+      <c r="AI29" s="39"/>
+      <c r="AJ29" s="39"/>
+      <c r="AK29" s="39"/>
+      <c r="AL29" s="39"/>
+      <c r="AM29" s="39"/>
+      <c r="AN29" s="39"/>
+      <c r="AO29" s="39"/>
+      <c r="AP29" s="39"/>
+      <c r="AQ29" s="39"/>
+      <c r="AR29" s="39"/>
+      <c r="AS29" s="39"/>
+      <c r="AT29" s="39"/>
+      <c r="AU29" s="39"/>
+      <c r="AV29" s="39"/>
+      <c r="AW29" s="39"/>
+      <c r="AX29" s="39"/>
+      <c r="AY29" s="39"/>
+      <c r="AZ29" s="39"/>
+      <c r="BA29" s="39"/>
+      <c r="BB29" s="39"/>
+      <c r="BC29" s="39"/>
+      <c r="BD29" s="39"/>
+      <c r="BE29" s="39"/>
+      <c r="BF29" s="39"/>
+      <c r="BG29" s="39"/>
+      <c r="BH29" s="39"/>
+      <c r="BI29" s="39"/>
+      <c r="BJ29" s="39"/>
+      <c r="BK29" s="39"/>
+      <c r="BL29" s="39"/>
+    </row>
+    <row r="30" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="63">
+        <v>1</v>
+      </c>
+      <c r="E30" s="80">
+        <v>45566</v>
+      </c>
+      <c r="F30" s="80">
+        <v>45571</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="39"/>
+      <c r="AF30" s="39"/>
+      <c r="AG30" s="39"/>
+      <c r="AH30" s="39"/>
+      <c r="AI30" s="39"/>
+      <c r="AJ30" s="39"/>
+      <c r="AK30" s="39"/>
+      <c r="AL30" s="39"/>
+      <c r="AM30" s="39"/>
+      <c r="AN30" s="39"/>
+      <c r="AO30" s="39"/>
+      <c r="AP30" s="39"/>
+      <c r="AQ30" s="39"/>
+      <c r="AR30" s="39"/>
+      <c r="AS30" s="39"/>
+      <c r="AT30" s="39"/>
+      <c r="AU30" s="39"/>
+      <c r="AV30" s="39"/>
+      <c r="AW30" s="39"/>
+      <c r="AX30" s="39"/>
+      <c r="AY30" s="39"/>
+      <c r="AZ30" s="39"/>
+      <c r="BA30" s="39"/>
+      <c r="BB30" s="39"/>
+      <c r="BC30" s="39"/>
+      <c r="BD30" s="39"/>
+      <c r="BE30" s="39"/>
+      <c r="BF30" s="39"/>
+      <c r="BG30" s="39"/>
+      <c r="BH30" s="39"/>
+      <c r="BI30" s="39"/>
+      <c r="BJ30" s="39"/>
+      <c r="BK30" s="39"/>
+      <c r="BL30" s="39"/>
+    </row>
+    <row r="31" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="63">
+        <v>1</v>
+      </c>
+      <c r="E31" s="80">
+        <v>45566</v>
+      </c>
+      <c r="F31" s="80">
+        <v>45571</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="39"/>
+      <c r="AF31" s="39"/>
+      <c r="AG31" s="39"/>
+      <c r="AH31" s="39"/>
+      <c r="AI31" s="39"/>
+      <c r="AJ31" s="39"/>
+      <c r="AK31" s="39"/>
+      <c r="AL31" s="39"/>
+      <c r="AM31" s="39"/>
+      <c r="AN31" s="39"/>
+      <c r="AO31" s="39"/>
+      <c r="AP31" s="39"/>
+      <c r="AQ31" s="39"/>
+      <c r="AR31" s="39"/>
+      <c r="AS31" s="39"/>
+      <c r="AT31" s="39"/>
+      <c r="AU31" s="39"/>
+      <c r="AV31" s="39"/>
+      <c r="AW31" s="39"/>
+      <c r="AX31" s="39"/>
+      <c r="AY31" s="39"/>
+      <c r="AZ31" s="39"/>
+      <c r="BA31" s="39"/>
+      <c r="BB31" s="39"/>
+      <c r="BC31" s="39"/>
+      <c r="BD31" s="39"/>
+      <c r="BE31" s="39"/>
+      <c r="BF31" s="39"/>
+      <c r="BG31" s="39"/>
+      <c r="BH31" s="39"/>
+      <c r="BI31" s="39"/>
+      <c r="BJ31" s="39"/>
+      <c r="BK31" s="39"/>
+      <c r="BL31" s="39"/>
+    </row>
+    <row r="32" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="63">
+        <v>1</v>
+      </c>
+      <c r="E32" s="80">
+        <v>45572</v>
+      </c>
+      <c r="F32" s="80">
+        <v>45572</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="39"/>
+      <c r="AF32" s="39"/>
+      <c r="AG32" s="39"/>
+      <c r="AH32" s="39"/>
+      <c r="AI32" s="39"/>
+      <c r="AJ32" s="39"/>
+      <c r="AK32" s="39"/>
+      <c r="AL32" s="39"/>
+      <c r="AM32" s="39"/>
+      <c r="AN32" s="39"/>
+      <c r="AO32" s="39"/>
+      <c r="AP32" s="39"/>
+      <c r="AQ32" s="39"/>
+      <c r="AR32" s="39"/>
+      <c r="AS32" s="39"/>
+      <c r="AT32" s="39"/>
+      <c r="AU32" s="39"/>
+      <c r="AV32" s="39"/>
+      <c r="AW32" s="39"/>
+      <c r="AX32" s="39"/>
+      <c r="AY32" s="39"/>
+      <c r="AZ32" s="39"/>
+      <c r="BA32" s="39"/>
+      <c r="BB32" s="39"/>
+      <c r="BC32" s="39"/>
+      <c r="BD32" s="39"/>
+      <c r="BE32" s="39"/>
+      <c r="BF32" s="39"/>
+      <c r="BG32" s="39"/>
+      <c r="BH32" s="39"/>
+      <c r="BI32" s="39"/>
+      <c r="BJ32" s="39"/>
+      <c r="BK32" s="39"/>
+      <c r="BL32" s="39"/>
+    </row>
+    <row r="33" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="63">
+        <v>1</v>
+      </c>
+      <c r="E33" s="80">
+        <v>45573</v>
+      </c>
+      <c r="F33" s="80">
+        <v>45573</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="39"/>
+      <c r="AF33" s="39"/>
+      <c r="AG33" s="39"/>
+      <c r="AH33" s="39"/>
+      <c r="AI33" s="39"/>
+      <c r="AJ33" s="39"/>
+      <c r="AK33" s="39"/>
+      <c r="AL33" s="39"/>
+      <c r="AM33" s="39"/>
+      <c r="AN33" s="39"/>
+      <c r="AO33" s="39"/>
+      <c r="AP33" s="39"/>
+      <c r="AQ33" s="39"/>
+      <c r="AR33" s="39"/>
+      <c r="AS33" s="39"/>
+      <c r="AT33" s="39"/>
+      <c r="AU33" s="39"/>
+      <c r="AV33" s="39"/>
+      <c r="AW33" s="39"/>
+      <c r="AX33" s="39"/>
+      <c r="AY33" s="39"/>
+      <c r="AZ33" s="39"/>
+      <c r="BA33" s="39"/>
+      <c r="BB33" s="39"/>
+      <c r="BC33" s="39"/>
+      <c r="BD33" s="39"/>
+      <c r="BE33" s="39"/>
+      <c r="BF33" s="39"/>
+      <c r="BG33" s="39"/>
+      <c r="BH33" s="39"/>
+      <c r="BI33" s="39"/>
+      <c r="BJ33" s="39"/>
+      <c r="BK33" s="39"/>
+      <c r="BL33" s="39"/>
+    </row>
+    <row r="34" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="67"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="67"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="67"/>
+      <c r="AB34" s="67"/>
+      <c r="AC34" s="67"/>
+      <c r="AD34" s="67"/>
+      <c r="AE34" s="67"/>
+      <c r="AF34" s="67"/>
+      <c r="AG34" s="67"/>
+      <c r="AH34" s="67"/>
+      <c r="AI34" s="67"/>
+      <c r="AJ34" s="67"/>
+      <c r="AK34" s="67"/>
+      <c r="AL34" s="67"/>
+      <c r="AM34" s="67"/>
+      <c r="AN34" s="67"/>
+      <c r="AO34" s="67"/>
+      <c r="AP34" s="67"/>
+      <c r="AQ34" s="67"/>
+      <c r="AR34" s="67"/>
+      <c r="AS34" s="67"/>
+      <c r="AT34" s="67"/>
+      <c r="AU34" s="67"/>
+      <c r="AV34" s="67"/>
+      <c r="AW34" s="67"/>
+      <c r="AX34" s="67"/>
+      <c r="AY34" s="67"/>
+      <c r="AZ34" s="67"/>
+      <c r="BA34" s="67"/>
+      <c r="BB34" s="67"/>
+      <c r="BC34" s="67"/>
+      <c r="BD34" s="67"/>
+      <c r="BE34" s="67"/>
+      <c r="BF34" s="67"/>
+      <c r="BG34" s="67"/>
+      <c r="BH34" s="67"/>
+      <c r="BI34" s="67"/>
+      <c r="BJ34" s="67"/>
+      <c r="BK34" s="67"/>
+      <c r="BL34" s="67"/>
+    </row>
+    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="8"/>
+      <c r="F36" s="90"/>
+    </row>
+    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D7:D34">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0A62CA2D-1645-4647-8039-67428F5BCC4D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:BL33">
+    <cfRule type="expression" dxfId="17" priority="1">
+      <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:BL13">
+    <cfRule type="expression" dxfId="16" priority="6">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="7" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:BL19">
+    <cfRule type="expression" dxfId="14" priority="4">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:BL27">
+    <cfRule type="expression" dxfId="12" priority="2">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:BL33">
+    <cfRule type="expression" dxfId="10" priority="9">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="13">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A34" xr:uid="{2DE1C24B-E28E-429A-9C71-02C32513B3A3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A28" xr:uid="{6A5AEA00-2DE5-4203-8502-403965C29005}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A20" xr:uid="{035D2FCA-902F-48EE-8AB2-42DBE413F436}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A14" xr:uid="{A7E277A1-426B-46AB-99D2-BAC4D22A743D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A10" xr:uid="{2F518704-631C-40DD-A274-657661B20A68}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A9" xr:uid="{F8707F60-F5F3-432B-9436-3B4395B50FED}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B8 contains the Phase 1 sample title. Enter a new title in cell B8._x000a_To delete the phase and work only from tasks, simply delete this row." sqref="A8" xr:uid="{00EA70E6-4A34-4D54-A1A6-ED30F6E5E5D7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A5:A6" xr:uid="{6801A391-A60D-4D14-88F8-94E476A816A3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A4" xr:uid="{87CE545E-2AFF-43AB-A770-F874D79D77EE}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A3" xr:uid="{DDFAB6C5-472C-4453-927C-54E7822115BF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company name in cel B2." sqref="A2" xr:uid="{A6E3059A-51BE-4A8C-893A-634B5226611D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Schedule in this worksheet._x000a_Enter title of this project in cell B1. _x000a_Information on how to use this worksheet, including instructions for screen readers and the author of this workbook, is in the About worksheet._x000a_" sqref="A1" xr:uid="{E3CC87D3-9356-4DD7-8590-A90AD7E7C82B}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="Q2" xr:uid="{166D9033-BCF8-4EBE-8553-8632B4F007E0}">
+      <formula1>1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1" scaleWithDoc="0">
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0A62CA2D-1645-4647-8039-67428F5BCC4D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D7:D34</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BL39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="77" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.69921875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="32.296875" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="82" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="89" customWidth="1"/>
+    <col min="7" max="7" width="2.69921875" customWidth="1"/>
+    <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
+    <col min="9" max="23" width="2.69921875" customWidth="1"/>
+    <col min="24" max="24" width="3.69921875" customWidth="1"/>
+    <col min="25" max="25" width="3.296875" customWidth="1"/>
+    <col min="26" max="26" width="4.296875" customWidth="1"/>
+    <col min="27" max="65" width="2.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.45">
+      <c r="A1" s="7"/>
+      <c r="B1" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="12"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="99">
+        <v>45575</v>
+      </c>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
+    </row>
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13"/>
+      <c r="I2" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="97">
+        <v>1</v>
+      </c>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+    </row>
+    <row r="3" spans="1:64" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:64" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="I4" s="104">
+        <f>I5</f>
+        <v>45572</v>
+      </c>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102">
+        <f>P5</f>
+        <v>45579</v>
+      </c>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="102"/>
+      <c r="U4" s="102"/>
+      <c r="V4" s="102"/>
+      <c r="W4" s="102">
+        <f>W5</f>
+        <v>45586</v>
+      </c>
+      <c r="X4" s="102"/>
+      <c r="Y4" s="102"/>
+      <c r="Z4" s="102"/>
+      <c r="AA4" s="102"/>
+      <c r="AB4" s="102"/>
+      <c r="AC4" s="102"/>
+      <c r="AD4" s="102">
+        <f>AD5</f>
+        <v>45593</v>
+      </c>
+      <c r="AE4" s="102"/>
+      <c r="AF4" s="102"/>
+      <c r="AG4" s="102"/>
+      <c r="AH4" s="102"/>
+      <c r="AI4" s="102"/>
+      <c r="AJ4" s="102"/>
+      <c r="AK4" s="102">
+        <f>AK5</f>
+        <v>45600</v>
+      </c>
+      <c r="AL4" s="102"/>
+      <c r="AM4" s="102"/>
+      <c r="AN4" s="102"/>
+      <c r="AO4" s="102"/>
+      <c r="AP4" s="102"/>
+      <c r="AQ4" s="102"/>
+      <c r="AR4" s="102">
+        <f>AR5</f>
+        <v>45607</v>
+      </c>
+      <c r="AS4" s="102"/>
+      <c r="AT4" s="102"/>
+      <c r="AU4" s="102"/>
+      <c r="AV4" s="102"/>
+      <c r="AW4" s="102"/>
+      <c r="AX4" s="102"/>
+      <c r="AY4" s="102">
+        <f>AY5</f>
+        <v>45614</v>
+      </c>
+      <c r="AZ4" s="102"/>
+      <c r="BA4" s="102"/>
+      <c r="BB4" s="102"/>
+      <c r="BC4" s="102"/>
+      <c r="BD4" s="102"/>
+      <c r="BE4" s="102"/>
+      <c r="BF4" s="102">
+        <f>BF5</f>
+        <v>45621</v>
+      </c>
+      <c r="BG4" s="102"/>
+      <c r="BH4" s="102"/>
+      <c r="BI4" s="102"/>
+      <c r="BJ4" s="102"/>
+      <c r="BK4" s="102"/>
+      <c r="BL4" s="103"/>
+    </row>
+    <row r="5" spans="1:64" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="91"/>
+      <c r="B5" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="22">
+        <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
+        <v>45572</v>
+      </c>
+      <c r="J5" s="22">
+        <f>I5+1</f>
+        <v>45573</v>
+      </c>
+      <c r="K5" s="22">
+        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
+        <v>45574</v>
+      </c>
+      <c r="L5" s="22">
+        <f t="shared" si="0"/>
+        <v>45575</v>
+      </c>
+      <c r="M5" s="22">
+        <f t="shared" si="0"/>
+        <v>45576</v>
+      </c>
+      <c r="N5" s="22">
+        <f t="shared" si="0"/>
+        <v>45577</v>
+      </c>
+      <c r="O5" s="23">
+        <f t="shared" si="0"/>
+        <v>45578</v>
+      </c>
+      <c r="P5" s="24">
+        <f>O5+1</f>
+        <v>45579</v>
+      </c>
+      <c r="Q5" s="22">
+        <f>P5+1</f>
+        <v>45580</v>
+      </c>
+      <c r="R5" s="22">
+        <f t="shared" si="0"/>
+        <v>45581</v>
+      </c>
+      <c r="S5" s="22">
+        <f t="shared" si="0"/>
+        <v>45582</v>
+      </c>
+      <c r="T5" s="22">
+        <f t="shared" si="0"/>
+        <v>45583</v>
+      </c>
+      <c r="U5" s="22">
+        <f t="shared" si="0"/>
+        <v>45584</v>
+      </c>
+      <c r="V5" s="23">
+        <f t="shared" si="0"/>
+        <v>45585</v>
+      </c>
+      <c r="W5" s="24">
+        <f>V5+1</f>
+        <v>45586</v>
+      </c>
+      <c r="X5" s="22">
+        <f>W5+1</f>
+        <v>45587</v>
+      </c>
+      <c r="Y5" s="22">
+        <f t="shared" si="0"/>
+        <v>45588</v>
+      </c>
+      <c r="Z5" s="22">
+        <f t="shared" si="0"/>
+        <v>45589</v>
+      </c>
+      <c r="AA5" s="22">
+        <f t="shared" si="0"/>
+        <v>45590</v>
+      </c>
+      <c r="AB5" s="22">
+        <f t="shared" si="0"/>
+        <v>45591</v>
+      </c>
+      <c r="AC5" s="23">
+        <f t="shared" si="0"/>
+        <v>45592</v>
+      </c>
+      <c r="AD5" s="24">
+        <f>AC5+1</f>
+        <v>45593</v>
+      </c>
+      <c r="AE5" s="22">
+        <f>AD5+1</f>
+        <v>45594</v>
+      </c>
+      <c r="AF5" s="22">
+        <f t="shared" si="0"/>
+        <v>45595</v>
+      </c>
+      <c r="AG5" s="22">
+        <f t="shared" si="0"/>
+        <v>45596</v>
+      </c>
+      <c r="AH5" s="22">
+        <f t="shared" si="0"/>
+        <v>45597</v>
+      </c>
+      <c r="AI5" s="22">
+        <f t="shared" si="0"/>
+        <v>45598</v>
+      </c>
+      <c r="AJ5" s="23">
+        <f t="shared" si="0"/>
+        <v>45599</v>
+      </c>
+      <c r="AK5" s="24">
+        <f>AJ5+1</f>
+        <v>45600</v>
+      </c>
+      <c r="AL5" s="22">
+        <f>AK5+1</f>
+        <v>45601</v>
+      </c>
+      <c r="AM5" s="22">
+        <f t="shared" si="0"/>
+        <v>45602</v>
+      </c>
+      <c r="AN5" s="22">
+        <f t="shared" si="0"/>
+        <v>45603</v>
+      </c>
+      <c r="AO5" s="22">
+        <f t="shared" si="0"/>
+        <v>45604</v>
+      </c>
+      <c r="AP5" s="22">
+        <f t="shared" si="0"/>
+        <v>45605</v>
+      </c>
+      <c r="AQ5" s="23">
+        <f t="shared" si="0"/>
+        <v>45606</v>
+      </c>
+      <c r="AR5" s="24">
+        <f>AQ5+1</f>
+        <v>45607</v>
+      </c>
+      <c r="AS5" s="22">
+        <f>AR5+1</f>
+        <v>45608</v>
+      </c>
+      <c r="AT5" s="22">
+        <f t="shared" si="0"/>
+        <v>45609</v>
+      </c>
+      <c r="AU5" s="22">
+        <f t="shared" si="0"/>
+        <v>45610</v>
+      </c>
+      <c r="AV5" s="22">
+        <f t="shared" si="0"/>
+        <v>45611</v>
+      </c>
+      <c r="AW5" s="22">
+        <f t="shared" si="0"/>
+        <v>45612</v>
+      </c>
+      <c r="AX5" s="23">
+        <f t="shared" si="0"/>
+        <v>45613</v>
+      </c>
+      <c r="AY5" s="24">
+        <f>AX5+1</f>
+        <v>45614</v>
+      </c>
+      <c r="AZ5" s="22">
+        <f>AY5+1</f>
+        <v>45615</v>
+      </c>
+      <c r="BA5" s="22">
+        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
+        <v>45616</v>
+      </c>
+      <c r="BB5" s="22">
+        <f t="shared" si="1"/>
+        <v>45617</v>
+      </c>
+      <c r="BC5" s="22">
+        <f t="shared" si="1"/>
+        <v>45618</v>
+      </c>
+      <c r="BD5" s="22">
+        <f t="shared" si="1"/>
+        <v>45619</v>
+      </c>
+      <c r="BE5" s="23">
+        <f t="shared" si="1"/>
+        <v>45620</v>
+      </c>
+      <c r="BF5" s="24">
+        <f>BE5+1</f>
+        <v>45621</v>
+      </c>
+      <c r="BG5" s="22">
+        <f>BF5+1</f>
+        <v>45622</v>
+      </c>
+      <c r="BH5" s="22">
+        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
+        <v>45623</v>
+      </c>
+      <c r="BI5" s="22">
+        <f t="shared" si="2"/>
+        <v>45624</v>
+      </c>
+      <c r="BJ5" s="22">
+        <f t="shared" si="2"/>
+        <v>45625</v>
+      </c>
+      <c r="BK5" s="22">
+        <f t="shared" si="2"/>
+        <v>45626</v>
+      </c>
+      <c r="BL5" s="22">
+        <f t="shared" si="2"/>
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="91"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="I6" s="25" t="str">
+        <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
+        <v>m</v>
+      </c>
+      <c r="J6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>d</v>
+      </c>
+      <c r="K6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>w</v>
+      </c>
+      <c r="L6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>d</v>
+      </c>
+      <c r="M6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>v</v>
+      </c>
+      <c r="N6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>z</v>
+      </c>
+      <c r="O6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>z</v>
+      </c>
+      <c r="P6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>m</v>
+      </c>
+      <c r="Q6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>d</v>
+      </c>
+      <c r="R6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>w</v>
+      </c>
+      <c r="S6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>d</v>
+      </c>
+      <c r="T6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>v</v>
+      </c>
+      <c r="U6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>z</v>
+      </c>
+      <c r="V6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>z</v>
+      </c>
+      <c r="W6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>m</v>
+      </c>
+      <c r="X6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>d</v>
+      </c>
+      <c r="Y6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>w</v>
+      </c>
+      <c r="Z6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>d</v>
+      </c>
+      <c r="AA6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>v</v>
+      </c>
+      <c r="AB6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>z</v>
+      </c>
+      <c r="AC6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>z</v>
+      </c>
+      <c r="AD6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>m</v>
+      </c>
+      <c r="AE6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>d</v>
+      </c>
+      <c r="AF6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>w</v>
+      </c>
+      <c r="AG6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>d</v>
+      </c>
+      <c r="AH6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>v</v>
+      </c>
+      <c r="AI6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>z</v>
+      </c>
+      <c r="AJ6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>z</v>
+      </c>
+      <c r="AK6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>m</v>
+      </c>
+      <c r="AL6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>d</v>
+      </c>
+      <c r="AM6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>w</v>
+      </c>
+      <c r="AN6" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>d</v>
+      </c>
+      <c r="AO6" s="26" t="str">
+        <f t="shared" ref="AO6:BL6" si="4">LEFT(TEXT(AO5,"ddd"),1)</f>
+        <v>v</v>
+      </c>
+      <c r="AP6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>z</v>
+      </c>
+      <c r="AQ6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>z</v>
+      </c>
+      <c r="AR6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>m</v>
+      </c>
+      <c r="AS6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>d</v>
+      </c>
+      <c r="AT6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>w</v>
+      </c>
+      <c r="AU6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>d</v>
+      </c>
+      <c r="AV6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>v</v>
+      </c>
+      <c r="AW6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>z</v>
+      </c>
+      <c r="AX6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>z</v>
+      </c>
+      <c r="AY6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>m</v>
+      </c>
+      <c r="AZ6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>d</v>
+      </c>
+      <c r="BA6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>w</v>
+      </c>
+      <c r="BB6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>d</v>
+      </c>
+      <c r="BC6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>v</v>
+      </c>
+      <c r="BD6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>z</v>
+      </c>
+      <c r="BE6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>z</v>
+      </c>
+      <c r="BF6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>m</v>
+      </c>
+      <c r="BG6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>d</v>
+      </c>
+      <c r="BH6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>w</v>
+      </c>
+      <c r="BI6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>d</v>
+      </c>
+      <c r="BJ6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>v</v>
+      </c>
+      <c r="BK6" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>z</v>
+      </c>
+      <c r="BL6" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>z</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" s="17" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
       <c r="H7" s="17" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
@@ -2332,11 +5393,11 @@
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="33"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="102"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="84"/>
       <c r="G8" s="9"/>
       <c r="H8" s="4" t="str">
-        <f t="shared" ref="H8:H35" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H36" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="34"/>
@@ -2399,18 +5460,18 @@
     <row r="9" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="36" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="38">
-        <v>0.8</v>
-      </c>
-      <c r="E9" s="90">
+        <v>1</v>
+      </c>
+      <c r="E9" s="73">
         <v>45573</v>
       </c>
-      <c r="F9" s="90">
+      <c r="F9" s="73">
         <v>45580</v>
       </c>
       <c r="G9" s="9"/>
@@ -2478,24 +5539,24 @@
     <row r="10" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="40" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="42">
-        <v>0.8</v>
-      </c>
-      <c r="E10" s="91">
-        <v>45514</v>
-      </c>
-      <c r="F10" s="91">
+      <c r="D10" s="38">
+        <v>1</v>
+      </c>
+      <c r="E10" s="73">
+        <v>45573</v>
+      </c>
+      <c r="F10" s="74">
         <v>45580</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="4">
         <f t="shared" si="5"/>
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
@@ -2557,24 +5618,24 @@
     <row r="11" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="40" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="42">
-        <v>0.8</v>
-      </c>
-      <c r="E11" s="91">
-        <v>45514</v>
-      </c>
-      <c r="F11" s="91">
+      <c r="D11" s="38">
+        <v>1</v>
+      </c>
+      <c r="E11" s="73">
+        <v>45573</v>
+      </c>
+      <c r="F11" s="74">
         <v>45580</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="4">
         <f t="shared" si="5"/>
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
@@ -2636,24 +5697,24 @@
     <row r="12" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="40" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="42">
-        <v>0.8</v>
-      </c>
-      <c r="E12" s="91">
-        <v>45514</v>
-      </c>
-      <c r="F12" s="91">
+      <c r="D12" s="38">
+        <v>1</v>
+      </c>
+      <c r="E12" s="73">
+        <v>45573</v>
+      </c>
+      <c r="F12" s="74">
         <v>45580</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="4">
         <f t="shared" si="5"/>
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
@@ -2714,15 +5775,25 @@
     </row>
     <row r="13" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
+      <c r="B13" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="38">
+        <v>1</v>
+      </c>
+      <c r="E13" s="73">
+        <v>45573</v>
+      </c>
+      <c r="F13" s="74">
+        <v>45580</v>
+      </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="4" t="str">
+      <c r="H13" s="4">
         <f t="shared" si="5"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
@@ -2788,8 +5859,8 @@
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="46"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="103"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="9"/>
       <c r="H14" s="4" t="str">
         <f t="shared" si="5"/>
@@ -2799,25 +5870,22 @@
     <row r="15" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="47" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D15" s="49">
-        <v>0</v>
-      </c>
-      <c r="E15" s="93">
+        <v>1</v>
+      </c>
+      <c r="E15" s="76">
         <v>45580</v>
       </c>
-      <c r="F15" s="93">
-        <v>45580</v>
+      <c r="F15" s="76">
+        <v>45587</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+      <c r="H15" s="4"/>
       <c r="I15" s="39"/>
       <c r="J15" s="39"/>
       <c r="K15" s="39"/>
@@ -2878,25 +5946,22 @@
     <row r="16" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="47" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C16" s="48" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="49">
-        <v>0</v>
-      </c>
-      <c r="E16" s="93">
+        <v>1</v>
+      </c>
+      <c r="E16" s="76">
         <v>45580</v>
       </c>
-      <c r="F16" s="93">
-        <v>45585</v>
+      <c r="F16" s="76">
+        <v>45587</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="4">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
+      <c r="H16" s="4"/>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
@@ -2957,25 +6022,22 @@
     <row r="17" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="47" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D17" s="49">
-        <v>0</v>
-      </c>
-      <c r="E17" s="93">
+        <v>1</v>
+      </c>
+      <c r="E17" s="76">
         <v>45580</v>
       </c>
-      <c r="F17" s="93">
-        <v>45585</v>
+      <c r="F17" s="76">
+        <v>45587</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="4">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
+      <c r="H17" s="4"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
       <c r="K17" s="39"/>
@@ -3036,25 +6098,22 @@
     <row r="18" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="47" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D18" s="49">
-        <v>0</v>
-      </c>
-      <c r="E18" s="93">
+        <v>1</v>
+      </c>
+      <c r="E18" s="76">
         <v>45580</v>
       </c>
-      <c r="F18" s="93">
-        <v>45585</v>
+      <c r="F18" s="76">
+        <v>45587</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="4">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
+      <c r="H18" s="4"/>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
       <c r="K18" s="39"/>
@@ -3115,19 +6174,19 @@
     <row r="19" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="47" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D19" s="49">
-        <v>0</v>
-      </c>
-      <c r="E19" s="93">
+        <v>1</v>
+      </c>
+      <c r="E19" s="76">
         <v>45580</v>
       </c>
-      <c r="F19" s="93">
-        <v>45585</v>
+      <c r="F19" s="76">
+        <v>45587</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="4"/>
@@ -3190,99 +6249,97 @@
     </row>
     <row r="20" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
-      <c r="B20" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="49">
-        <v>0</v>
-      </c>
-      <c r="E20" s="93">
-        <v>45580</v>
-      </c>
-      <c r="F20" s="93">
-        <v>45585</v>
-      </c>
+      <c r="B20" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="86"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="39"/>
-      <c r="AB20" s="39"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="39"/>
-      <c r="AF20" s="39"/>
-      <c r="AG20" s="39"/>
-      <c r="AH20" s="39"/>
-      <c r="AI20" s="39"/>
-      <c r="AJ20" s="39"/>
-      <c r="AK20" s="39"/>
-      <c r="AL20" s="39"/>
-      <c r="AM20" s="39"/>
-      <c r="AN20" s="39"/>
-      <c r="AO20" s="39"/>
-      <c r="AP20" s="39"/>
-      <c r="AQ20" s="39"/>
-      <c r="AR20" s="39"/>
-      <c r="AS20" s="39"/>
-      <c r="AT20" s="39"/>
-      <c r="AU20" s="39"/>
-      <c r="AV20" s="39"/>
-      <c r="AW20" s="39"/>
-      <c r="AX20" s="39"/>
-      <c r="AY20" s="39"/>
-      <c r="AZ20" s="39"/>
-      <c r="BA20" s="39"/>
-      <c r="BB20" s="39"/>
-      <c r="BC20" s="39"/>
-      <c r="BD20" s="39"/>
-      <c r="BE20" s="39"/>
-      <c r="BF20" s="39"/>
-      <c r="BG20" s="39"/>
-      <c r="BH20" s="39"/>
-      <c r="BI20" s="39"/>
-      <c r="BJ20" s="39"/>
-      <c r="BK20" s="39"/>
-      <c r="BL20" s="39"/>
+      <c r="H20" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="53"/>
+      <c r="AH20" s="53"/>
+      <c r="AI20" s="53"/>
+      <c r="AJ20" s="53"/>
+      <c r="AK20" s="53"/>
+      <c r="AL20" s="53"/>
+      <c r="AM20" s="53"/>
+      <c r="AN20" s="53"/>
+      <c r="AO20" s="53"/>
+      <c r="AP20" s="53"/>
+      <c r="AQ20" s="53"/>
+      <c r="AR20" s="53"/>
+      <c r="AS20" s="53"/>
+      <c r="AT20" s="53"/>
+      <c r="AU20" s="53"/>
+      <c r="AV20" s="53"/>
+      <c r="AW20" s="53"/>
+      <c r="AX20" s="53"/>
+      <c r="AY20" s="53"/>
+      <c r="AZ20" s="53"/>
+      <c r="BA20" s="53"/>
+      <c r="BB20" s="53"/>
+      <c r="BC20" s="53"/>
+      <c r="BD20" s="53"/>
+      <c r="BE20" s="53"/>
+      <c r="BF20" s="53"/>
+      <c r="BG20" s="53"/>
+      <c r="BH20" s="53"/>
+      <c r="BI20" s="53"/>
+      <c r="BJ20" s="53"/>
+      <c r="BK20" s="53"/>
+      <c r="BL20" s="53"/>
     </row>
     <row r="21" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
-      <c r="B21" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="49">
-        <v>0</v>
-      </c>
-      <c r="E21" s="93">
-        <v>45580</v>
-      </c>
-      <c r="F21" s="93">
-        <v>45585</v>
+      <c r="B21" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="56">
+        <v>1</v>
+      </c>
+      <c r="E21" s="78">
+        <v>45586</v>
+      </c>
+      <c r="F21" s="78">
+        <v>45586</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="I21" s="39"/>
       <c r="J21" s="39"/>
       <c r="K21" s="39"/>
@@ -3299,7 +6356,7 @@
       <c r="V21" s="39"/>
       <c r="W21" s="39"/>
       <c r="X21" s="39"/>
-      <c r="Y21" s="43"/>
+      <c r="Y21" s="39"/>
       <c r="Z21" s="39"/>
       <c r="AA21" s="39"/>
       <c r="AB21" s="39"/>
@@ -3342,97 +6399,102 @@
     </row>
     <row r="22" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
-      <c r="B22" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="104"/>
+      <c r="B22" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="56">
+        <v>1</v>
+      </c>
+      <c r="E22" s="78">
+        <v>45586</v>
+      </c>
+      <c r="F22" s="78">
+        <v>45594</v>
+      </c>
       <c r="G22" s="9"/>
-      <c r="H22" s="4" t="str">
+      <c r="H22" s="4">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="53"/>
-      <c r="AD22" s="53"/>
-      <c r="AE22" s="53"/>
-      <c r="AF22" s="53"/>
-      <c r="AG22" s="53"/>
-      <c r="AH22" s="53"/>
-      <c r="AI22" s="53"/>
-      <c r="AJ22" s="53"/>
-      <c r="AK22" s="53"/>
-      <c r="AL22" s="53"/>
-      <c r="AM22" s="53"/>
-      <c r="AN22" s="53"/>
-      <c r="AO22" s="53"/>
-      <c r="AP22" s="53"/>
-      <c r="AQ22" s="53"/>
-      <c r="AR22" s="53"/>
-      <c r="AS22" s="53"/>
-      <c r="AT22" s="53"/>
-      <c r="AU22" s="53"/>
-      <c r="AV22" s="53"/>
-      <c r="AW22" s="53"/>
-      <c r="AX22" s="53"/>
-      <c r="AY22" s="53"/>
-      <c r="AZ22" s="53"/>
-      <c r="BA22" s="53"/>
-      <c r="BB22" s="53"/>
-      <c r="BC22" s="53"/>
-      <c r="BD22" s="53"/>
-      <c r="BE22" s="53"/>
-      <c r="BF22" s="53"/>
-      <c r="BG22" s="53"/>
-      <c r="BH22" s="53"/>
-      <c r="BI22" s="53"/>
-      <c r="BJ22" s="53"/>
-      <c r="BK22" s="53"/>
-      <c r="BL22" s="53"/>
+        <v>9</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="39"/>
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="39"/>
+      <c r="AL22" s="39"/>
+      <c r="AM22" s="39"/>
+      <c r="AN22" s="39"/>
+      <c r="AO22" s="39"/>
+      <c r="AP22" s="39"/>
+      <c r="AQ22" s="39"/>
+      <c r="AR22" s="39"/>
+      <c r="AS22" s="39"/>
+      <c r="AT22" s="39"/>
+      <c r="AU22" s="39"/>
+      <c r="AV22" s="39"/>
+      <c r="AW22" s="39"/>
+      <c r="AX22" s="39"/>
+      <c r="AY22" s="39"/>
+      <c r="AZ22" s="39"/>
+      <c r="BA22" s="39"/>
+      <c r="BB22" s="39"/>
+      <c r="BC22" s="39"/>
+      <c r="BD22" s="39"/>
+      <c r="BE22" s="39"/>
+      <c r="BF22" s="39"/>
+      <c r="BG22" s="39"/>
+      <c r="BH22" s="39"/>
+      <c r="BI22" s="39"/>
+      <c r="BJ22" s="39"/>
+      <c r="BK22" s="39"/>
+      <c r="BL22" s="39"/>
     </row>
     <row r="23" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="54" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23" s="56">
-        <v>0</v>
-      </c>
-      <c r="E23" s="95">
+        <v>1</v>
+      </c>
+      <c r="E23" s="78">
         <v>45586</v>
       </c>
-      <c r="F23" s="95">
-        <v>45586</v>
+      <c r="F23" s="78">
+        <v>45594</v>
       </c>
       <c r="G23" s="9"/>
-      <c r="H23" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+      <c r="H23" s="4"/>
       <c r="I23" s="39"/>
       <c r="J23" s="39"/>
       <c r="K23" s="39"/>
@@ -3493,24 +6555,24 @@
     <row r="24" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="54" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D24" s="56">
-        <v>0</v>
-      </c>
-      <c r="E24" s="95">
-        <v>45587</v>
-      </c>
-      <c r="F24" s="95">
-        <v>45587</v>
+        <v>1</v>
+      </c>
+      <c r="E24" s="78">
+        <v>45586</v>
+      </c>
+      <c r="F24" s="78">
+        <v>45594</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I24" s="39"/>
       <c r="J24" s="39"/>
@@ -3572,25 +6634,22 @@
     <row r="25" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="54" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25" s="56">
-        <v>0</v>
-      </c>
-      <c r="E25" s="95">
-        <v>45587</v>
-      </c>
-      <c r="F25" s="95">
-        <v>45587</v>
+        <v>1</v>
+      </c>
+      <c r="E25" s="78">
+        <v>45589</v>
+      </c>
+      <c r="F25" s="78">
+        <v>45594</v>
       </c>
       <c r="G25" s="9"/>
-      <c r="H25" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+      <c r="H25" s="4"/>
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
       <c r="K25" s="39"/>
@@ -3651,25 +6710,22 @@
     <row r="26" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D26" s="56">
-        <v>0</v>
-      </c>
-      <c r="E26" s="95">
-        <v>45587</v>
-      </c>
-      <c r="F26" s="95">
-        <v>45587</v>
+        <v>1</v>
+      </c>
+      <c r="E26" s="78">
+        <v>45589</v>
+      </c>
+      <c r="F26" s="78">
+        <v>45594</v>
       </c>
       <c r="G26" s="9"/>
-      <c r="H26" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+      <c r="H26" s="4"/>
       <c r="I26" s="39"/>
       <c r="J26" s="39"/>
       <c r="K26" s="39"/>
@@ -3730,25 +6786,22 @@
     <row r="27" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="54" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D27" s="56">
-        <v>0</v>
-      </c>
-      <c r="E27" s="95">
-        <v>45587</v>
-      </c>
-      <c r="F27" s="95">
-        <v>45589</v>
+        <v>1</v>
+      </c>
+      <c r="E27" s="78">
+        <v>45586</v>
+      </c>
+      <c r="F27" s="78">
+        <v>45594</v>
       </c>
       <c r="G27" s="9"/>
-      <c r="H27" s="4">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="H27" s="4"/>
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
       <c r="K27" s="39"/>
@@ -3808,96 +6861,104 @@
     </row>
     <row r="28" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
-      <c r="B28" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="105"/>
+      <c r="B28" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="56">
+        <v>1</v>
+      </c>
+      <c r="E28" s="78">
+        <v>45586</v>
+      </c>
+      <c r="F28" s="78">
+        <v>45594</v>
+      </c>
       <c r="G28" s="9"/>
-      <c r="H28" s="4" t="str">
+      <c r="H28" s="4">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="60"/>
-      <c r="U28" s="60"/>
-      <c r="V28" s="60"/>
-      <c r="W28" s="60"/>
-      <c r="X28" s="60"/>
-      <c r="Y28" s="60"/>
-      <c r="Z28" s="60"/>
-      <c r="AA28" s="60"/>
-      <c r="AB28" s="60"/>
-      <c r="AC28" s="60"/>
-      <c r="AD28" s="60"/>
-      <c r="AE28" s="60"/>
-      <c r="AF28" s="60"/>
-      <c r="AG28" s="60"/>
-      <c r="AH28" s="60"/>
-      <c r="AI28" s="60"/>
-      <c r="AJ28" s="60"/>
-      <c r="AK28" s="60"/>
-      <c r="AL28" s="60"/>
-      <c r="AM28" s="60"/>
-      <c r="AN28" s="60"/>
-      <c r="AO28" s="60"/>
-      <c r="AP28" s="60"/>
-      <c r="AQ28" s="60"/>
-      <c r="AR28" s="60"/>
-      <c r="AS28" s="60"/>
-      <c r="AT28" s="60"/>
-      <c r="AU28" s="60"/>
-      <c r="AV28" s="60"/>
-      <c r="AW28" s="60"/>
-      <c r="AX28" s="60"/>
-      <c r="AY28" s="60"/>
-      <c r="AZ28" s="60"/>
-      <c r="BA28" s="60"/>
-      <c r="BB28" s="60"/>
-      <c r="BC28" s="60"/>
-      <c r="BD28" s="60"/>
-      <c r="BE28" s="60"/>
-      <c r="BF28" s="60"/>
-      <c r="BG28" s="60"/>
-      <c r="BH28" s="60"/>
-      <c r="BI28" s="60"/>
-      <c r="BJ28" s="60"/>
-      <c r="BK28" s="60"/>
-      <c r="BL28" s="60"/>
+        <v>9</v>
+      </c>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="39"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="39"/>
+      <c r="AI28" s="39"/>
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="39"/>
+      <c r="AL28" s="39"/>
+      <c r="AM28" s="39"/>
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="39"/>
+      <c r="AP28" s="39"/>
+      <c r="AQ28" s="39"/>
+      <c r="AR28" s="39"/>
+      <c r="AS28" s="39"/>
+      <c r="AT28" s="39"/>
+      <c r="AU28" s="39"/>
+      <c r="AV28" s="39"/>
+      <c r="AW28" s="39"/>
+      <c r="AX28" s="39"/>
+      <c r="AY28" s="39"/>
+      <c r="AZ28" s="39"/>
+      <c r="BA28" s="39"/>
+      <c r="BB28" s="39"/>
+      <c r="BC28" s="39"/>
+      <c r="BD28" s="39"/>
+      <c r="BE28" s="39"/>
+      <c r="BF28" s="39"/>
+      <c r="BG28" s="39"/>
+      <c r="BH28" s="39"/>
+      <c r="BI28" s="39"/>
+      <c r="BJ28" s="39"/>
+      <c r="BK28" s="39"/>
+      <c r="BL28" s="39"/>
     </row>
     <row r="29" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
-      <c r="B29" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="63">
-        <v>0.4</v>
-      </c>
-      <c r="E29" s="97">
-        <v>45589</v>
-      </c>
-      <c r="F29" s="97">
-        <v>45589</v>
+      <c r="B29" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="56">
+        <v>0</v>
+      </c>
+      <c r="E29" s="78">
+        <v>45594</v>
+      </c>
+      <c r="F29" s="78">
+        <v>45595</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" s="39"/>
       <c r="J29" s="39"/>
@@ -3958,104 +7019,96 @@
     </row>
     <row r="30" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
-      <c r="B30" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="63">
-        <v>0</v>
-      </c>
-      <c r="E30" s="97">
-        <v>45600</v>
-      </c>
-      <c r="F30" s="97">
-        <v>45600</v>
-      </c>
+      <c r="B30" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="87"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="4">
+      <c r="H30" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="39"/>
-      <c r="AC30" s="39"/>
-      <c r="AD30" s="39"/>
-      <c r="AE30" s="39"/>
-      <c r="AF30" s="39"/>
-      <c r="AG30" s="39"/>
-      <c r="AH30" s="39"/>
-      <c r="AI30" s="39"/>
-      <c r="AJ30" s="39"/>
-      <c r="AK30" s="39"/>
-      <c r="AL30" s="39"/>
-      <c r="AM30" s="39"/>
-      <c r="AN30" s="39"/>
-      <c r="AO30" s="39"/>
-      <c r="AP30" s="39"/>
-      <c r="AQ30" s="39"/>
-      <c r="AR30" s="39"/>
-      <c r="AS30" s="39"/>
-      <c r="AT30" s="39"/>
-      <c r="AU30" s="39"/>
-      <c r="AV30" s="39"/>
-      <c r="AW30" s="39"/>
-      <c r="AX30" s="39"/>
-      <c r="AY30" s="39"/>
-      <c r="AZ30" s="39"/>
-      <c r="BA30" s="39"/>
-      <c r="BB30" s="39"/>
-      <c r="BC30" s="39"/>
-      <c r="BD30" s="39"/>
-      <c r="BE30" s="39"/>
-      <c r="BF30" s="39"/>
-      <c r="BG30" s="39"/>
-      <c r="BH30" s="39"/>
-      <c r="BI30" s="39"/>
-      <c r="BJ30" s="39"/>
-      <c r="BK30" s="39"/>
-      <c r="BL30" s="39"/>
+        <v/>
+      </c>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="60"/>
+      <c r="AF30" s="60"/>
+      <c r="AG30" s="60"/>
+      <c r="AH30" s="60"/>
+      <c r="AI30" s="60"/>
+      <c r="AJ30" s="60"/>
+      <c r="AK30" s="60"/>
+      <c r="AL30" s="60"/>
+      <c r="AM30" s="60"/>
+      <c r="AN30" s="60"/>
+      <c r="AO30" s="60"/>
+      <c r="AP30" s="60"/>
+      <c r="AQ30" s="60"/>
+      <c r="AR30" s="60"/>
+      <c r="AS30" s="60"/>
+      <c r="AT30" s="60"/>
+      <c r="AU30" s="60"/>
+      <c r="AV30" s="60"/>
+      <c r="AW30" s="60"/>
+      <c r="AX30" s="60"/>
+      <c r="AY30" s="60"/>
+      <c r="AZ30" s="60"/>
+      <c r="BA30" s="60"/>
+      <c r="BB30" s="60"/>
+      <c r="BC30" s="60"/>
+      <c r="BD30" s="60"/>
+      <c r="BE30" s="60"/>
+      <c r="BF30" s="60"/>
+      <c r="BG30" s="60"/>
+      <c r="BH30" s="60"/>
+      <c r="BI30" s="60"/>
+      <c r="BJ30" s="60"/>
+      <c r="BK30" s="60"/>
+      <c r="BL30" s="60"/>
     </row>
     <row r="31" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="61" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C31" s="62" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D31" s="63">
         <v>0</v>
       </c>
-      <c r="E31" s="97">
-        <v>45589</v>
-      </c>
-      <c r="F31" s="97">
-        <v>45600</v>
+      <c r="E31" s="80">
+        <v>45595</v>
+      </c>
+      <c r="F31" s="80">
+        <v>45595</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I31" s="39"/>
       <c r="J31" s="39"/>
@@ -4117,24 +7170,24 @@
     <row r="32" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="61" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C32" s="62" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D32" s="63">
         <v>0</v>
       </c>
-      <c r="E32" s="97">
-        <v>45589</v>
-      </c>
-      <c r="F32" s="97">
-        <v>45600</v>
+      <c r="E32" s="80">
+        <v>45595</v>
+      </c>
+      <c r="F32" s="80">
+        <v>45599</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I32" s="39"/>
       <c r="J32" s="39"/>
@@ -4196,24 +7249,24 @@
     <row r="33" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="61" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C33" s="62" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D33" s="63">
         <v>0</v>
       </c>
-      <c r="E33" s="97">
-        <v>45589</v>
-      </c>
-      <c r="F33" s="97">
-        <v>45600</v>
+      <c r="E33" s="80">
+        <v>45595</v>
+      </c>
+      <c r="F33" s="80">
+        <v>45599</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I33" s="39"/>
       <c r="J33" s="39"/>
@@ -4274,153 +7327,239 @@
     </row>
     <row r="34" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
+      <c r="B34" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="63">
+        <v>0</v>
+      </c>
+      <c r="E34" s="80">
+        <v>45595</v>
+      </c>
+      <c r="F34" s="80">
+        <v>45599</v>
+      </c>
       <c r="G34" s="9"/>
-      <c r="H34" s="4" t="str">
+      <c r="H34" s="4">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="39"/>
+      <c r="AF34" s="39"/>
+      <c r="AG34" s="39"/>
+      <c r="AH34" s="39"/>
+      <c r="AI34" s="39"/>
+      <c r="AJ34" s="39"/>
+      <c r="AK34" s="39"/>
+      <c r="AL34" s="39"/>
+      <c r="AM34" s="39"/>
+      <c r="AN34" s="39"/>
+      <c r="AO34" s="39"/>
+      <c r="AP34" s="39"/>
+      <c r="AQ34" s="39"/>
+      <c r="AR34" s="39"/>
+      <c r="AS34" s="39"/>
+      <c r="AT34" s="39"/>
+      <c r="AU34" s="39"/>
+      <c r="AV34" s="39"/>
+      <c r="AW34" s="39"/>
+      <c r="AX34" s="39"/>
+      <c r="AY34" s="39"/>
+      <c r="AZ34" s="39"/>
+      <c r="BA34" s="39"/>
+      <c r="BB34" s="39"/>
+      <c r="BC34" s="39"/>
+      <c r="BD34" s="39"/>
+      <c r="BE34" s="39"/>
+      <c r="BF34" s="39"/>
+      <c r="BG34" s="39"/>
+      <c r="BH34" s="39"/>
+      <c r="BI34" s="39"/>
+      <c r="BJ34" s="39"/>
+      <c r="BK34" s="39"/>
+      <c r="BL34" s="39"/>
+    </row>
+    <row r="35" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="63">
+        <v>0</v>
+      </c>
+      <c r="E35" s="80">
+        <v>45600</v>
+      </c>
+      <c r="F35" s="80">
+        <v>45600</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="39"/>
+      <c r="AF35" s="39"/>
+      <c r="AG35" s="39"/>
+      <c r="AH35" s="39"/>
+      <c r="AI35" s="39"/>
+      <c r="AJ35" s="39"/>
+      <c r="AK35" s="39"/>
+      <c r="AL35" s="39"/>
+      <c r="AM35" s="39"/>
+      <c r="AN35" s="39"/>
+      <c r="AO35" s="39"/>
+      <c r="AP35" s="39"/>
+      <c r="AQ35" s="39"/>
+      <c r="AR35" s="39"/>
+      <c r="AS35" s="39"/>
+      <c r="AT35" s="39"/>
+      <c r="AU35" s="39"/>
+      <c r="AV35" s="39"/>
+      <c r="AW35" s="39"/>
+      <c r="AX35" s="39"/>
+      <c r="AY35" s="39"/>
+      <c r="AZ35" s="39"/>
+      <c r="BA35" s="39"/>
+      <c r="BB35" s="39"/>
+      <c r="BC35" s="39"/>
+      <c r="BD35" s="39"/>
+      <c r="BE35" s="39"/>
+      <c r="BF35" s="39"/>
+      <c r="BG35" s="39"/>
+      <c r="BH35" s="39"/>
+      <c r="BI35" s="39"/>
+      <c r="BJ35" s="39"/>
+      <c r="BK35" s="39"/>
+      <c r="BL35" s="39"/>
+    </row>
+    <row r="36" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="65"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="34"/>
-      <c r="AF34" s="34"/>
-      <c r="AG34" s="34"/>
-      <c r="AH34" s="34"/>
-      <c r="AI34" s="34"/>
-      <c r="AJ34" s="34"/>
-      <c r="AK34" s="34"/>
-      <c r="AL34" s="34"/>
-      <c r="AM34" s="34"/>
-      <c r="AN34" s="34"/>
-      <c r="AO34" s="34"/>
-      <c r="AP34" s="34"/>
-      <c r="AQ34" s="34"/>
-      <c r="AR34" s="34"/>
-      <c r="AS34" s="34"/>
-      <c r="AT34" s="34"/>
-      <c r="AU34" s="34"/>
-      <c r="AV34" s="34"/>
-      <c r="AW34" s="34"/>
-      <c r="AX34" s="34"/>
-      <c r="AY34" s="34"/>
-      <c r="AZ34" s="34"/>
-      <c r="BA34" s="34"/>
-      <c r="BB34" s="34"/>
-      <c r="BC34" s="34"/>
-      <c r="BD34" s="34"/>
-      <c r="BE34" s="34"/>
-      <c r="BF34" s="34"/>
-      <c r="BG34" s="34"/>
-      <c r="BH34" s="34"/>
-      <c r="BI34" s="34"/>
-      <c r="BJ34" s="34"/>
-      <c r="BK34" s="34"/>
-      <c r="BL34" s="34"/>
-    </row>
-    <row r="35" spans="1:64" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="70"/>
-      <c r="Q35" s="70"/>
-      <c r="R35" s="70"/>
-      <c r="S35" s="70"/>
-      <c r="T35" s="70"/>
-      <c r="U35" s="70"/>
-      <c r="V35" s="70"/>
-      <c r="W35" s="70"/>
-      <c r="X35" s="70"/>
-      <c r="Y35" s="70"/>
-      <c r="Z35" s="70"/>
-      <c r="AA35" s="70"/>
-      <c r="AB35" s="70"/>
-      <c r="AC35" s="70"/>
-      <c r="AD35" s="70"/>
-      <c r="AE35" s="70"/>
-      <c r="AF35" s="70"/>
-      <c r="AG35" s="70"/>
-      <c r="AH35" s="70"/>
-      <c r="AI35" s="70"/>
-      <c r="AJ35" s="70"/>
-      <c r="AK35" s="70"/>
-      <c r="AL35" s="70"/>
-      <c r="AM35" s="70"/>
-      <c r="AN35" s="70"/>
-      <c r="AO35" s="70"/>
-      <c r="AP35" s="70"/>
-      <c r="AQ35" s="70"/>
-      <c r="AR35" s="70"/>
-      <c r="AS35" s="70"/>
-      <c r="AT35" s="70"/>
-      <c r="AU35" s="70"/>
-      <c r="AV35" s="70"/>
-      <c r="AW35" s="70"/>
-      <c r="AX35" s="70"/>
-      <c r="AY35" s="70"/>
-      <c r="AZ35" s="70"/>
-      <c r="BA35" s="70"/>
-      <c r="BB35" s="70"/>
-      <c r="BC35" s="70"/>
-      <c r="BD35" s="70"/>
-      <c r="BE35" s="70"/>
-      <c r="BF35" s="70"/>
-      <c r="BG35" s="70"/>
-      <c r="BH35" s="70"/>
-      <c r="BI35" s="70"/>
-      <c r="BJ35" s="70"/>
-      <c r="BK35" s="70"/>
-      <c r="BL35" s="70"/>
-    </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="2"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="67"/>
+      <c r="V36" s="67"/>
+      <c r="W36" s="67"/>
+      <c r="X36" s="67"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="67"/>
+      <c r="AA36" s="67"/>
+      <c r="AB36" s="67"/>
+      <c r="AC36" s="67"/>
+      <c r="AD36" s="67"/>
+      <c r="AE36" s="67"/>
+      <c r="AF36" s="67"/>
+      <c r="AG36" s="67"/>
+      <c r="AH36" s="67"/>
+      <c r="AI36" s="67"/>
+      <c r="AJ36" s="67"/>
+      <c r="AK36" s="67"/>
+      <c r="AL36" s="67"/>
+      <c r="AM36" s="67"/>
+      <c r="AN36" s="67"/>
+      <c r="AO36" s="67"/>
+      <c r="AP36" s="67"/>
+      <c r="AQ36" s="67"/>
+      <c r="AR36" s="67"/>
+      <c r="AS36" s="67"/>
+      <c r="AT36" s="67"/>
+      <c r="AU36" s="67"/>
+      <c r="AV36" s="67"/>
+      <c r="AW36" s="67"/>
+      <c r="AX36" s="67"/>
+      <c r="AY36" s="67"/>
+      <c r="AZ36" s="67"/>
+      <c r="BA36" s="67"/>
+      <c r="BB36" s="67"/>
+      <c r="BC36" s="67"/>
+      <c r="BD36" s="67"/>
+      <c r="BE36" s="67"/>
+      <c r="BF36" s="67"/>
+      <c r="BG36" s="67"/>
+      <c r="BH36" s="67"/>
+      <c r="BI36" s="67"/>
+      <c r="BJ36" s="67"/>
+      <c r="BK36" s="67"/>
+      <c r="BL36" s="67"/>
     </row>
     <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="8"/>
-      <c r="F37" s="108"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="3"/>
+      <c r="C38" s="8"/>
+      <c r="F38" s="90"/>
+    </row>
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4443,7 +7582,7 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D35">
+  <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4457,40 +7596,40 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:BL33">
-    <cfRule type="expression" dxfId="11" priority="1">
+  <conditionalFormatting sqref="I4:BL35">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:BL13">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:BL21">
-    <cfRule type="expression" dxfId="8" priority="4">
+  <conditionalFormatting sqref="I15:BL19">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23:BL27">
-    <cfRule type="expression" dxfId="6" priority="2">
+  <conditionalFormatting sqref="I21:BL29">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:BL33">
-    <cfRule type="expression" dxfId="4" priority="36">
+  <conditionalFormatting sqref="I31:BL35">
+    <cfRule type="expression" dxfId="1" priority="36">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="37" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4507,9 +7646,9 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A9" xr:uid="{D870A2F6-6B07-4F5A-A81D-4BCCFADF8796}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A10" xr:uid="{872449A7-C3CC-45B6-BA90-B1AAD66BA0E5}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A14" xr:uid="{4F48FC41-E335-47F1-87AA-3333A52AD81C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A22" xr:uid="{956902D1-D3B5-416D-BB69-9362D193BC0A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A28" xr:uid="{DE54E5DE-526D-4D71-8D03-E99B4AB2FEE5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A35" xr:uid="{79B9237E-4DD3-4E0F-8ED6-E0B695A99D96}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A20" xr:uid="{956902D1-D3B5-416D-BB69-9362D193BC0A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A30" xr:uid="{DE54E5DE-526D-4D71-8D03-E99B4AB2FEE5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A36" xr:uid="{79B9237E-4DD3-4E0F-8ED6-E0B695A99D96}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
@@ -4533,7 +7672,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D35</xm:sqref>
+          <xm:sqref>D7:D36</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4542,15 +7681,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4862,7 +7992,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -4882,15 +8012,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4911,7 +8042,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -4930,6 +8061,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>